--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P17_trail14 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P17_trail14 Features.xlsx
@@ -5441,7 +5441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z43"/>
+  <dimension ref="A1:X43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5452,29 +5452,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5495,115 +5493,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -5620,72 +5608,66 @@
         <v>3.638414400477766e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.4755623750565049</v>
+        <v>1.127809190728311e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.247379348336239</v>
+        <v>2.602645297700022e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.127809190728311e-06</v>
+        <v>-0.01713688924677378</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.602645297700022e-06</v>
+        <v>0.1211539579793167</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.01713688924677378</v>
+        <v>0.01495377310318269</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1211539579793167</v>
+        <v>1.916014271442583</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.01495377310318269</v>
+        <v>2.215521335654026</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.947391165848712</v>
+        <v>4.696261139783697</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.215521335654026</v>
+        <v>1.201951874972034e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.696261139783697</v>
+        <v>1437638103.171091</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.201951874972034e-16</v>
+        <v>8.408715088832145e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>1437638103.171091</v>
+        <v>248.4198120491255</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>8.408715088832145e-08</v>
+        <v>0.0001692441747327233</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>248.4198120491255</v>
+        <v>12.85067282659642</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001692441747327233</v>
+        <v>1.030461766786722</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>12.85067282659642</v>
+        <v>0.02794894782885888</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.030461766786722</v>
+        <v>3.576159369840832</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.02794894782885888</v>
+        <v>0.9613752032024655</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.576159369840832</v>
+        <v>0.9845580549200892</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9613752032024655</v>
+        <v>81</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.9845580549200892</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>2.704476746719981</v>
       </c>
     </row>
@@ -5700,72 +5682,66 @@
         <v>3.679341753974998e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.4956208522626734</v>
+        <v>1.127809190728311e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.253606258822093</v>
+        <v>2.594935436629326e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.127809190728311e-06</v>
+        <v>-0.0244579211981883</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.594935436629326e-06</v>
+        <v>0.1026356439236247</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.0244579211981883</v>
+        <v>0.01112306174358868</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1026356439236247</v>
+        <v>1.910755421893246</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.01112306174358868</v>
+        <v>2.246879785512481</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.934892385658745</v>
+        <v>4.525408295357078</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.246879785512481</v>
+        <v>1.43328626120252e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.525408295357078</v>
+        <v>1206872617.499434</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.43328626120252e-16</v>
+        <v>9.99935806961761e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>1206872617.499434</v>
+        <v>208.7640942134185</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>9.99935806961761e-08</v>
+        <v>0.0001863991719091673</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>208.7640942134185</v>
+        <v>14.46210844603866</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001863991719091673</v>
+        <v>0.9517554532676519</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>14.46210844603866</v>
+        <v>0.03898586784607404</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>0.9517554532676519</v>
+        <v>3.420401022809336</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.03898586784607404</v>
+        <v>0.9608734009562687</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.420401022809336</v>
+        <v>1.097480150066461</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9608734009562687</v>
+        <v>81</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.097480150066461</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>2.77752496694005</v>
       </c>
     </row>
@@ -5780,72 +5756,66 @@
         <v>3.710695758672749e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.5374643889466835</v>
+        <v>1.127809190728311e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.231759814359814</v>
+        <v>2.584949962218522e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.127809190728311e-06</v>
+        <v>-0.02912965745740718</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.584949962218522e-06</v>
+        <v>0.09254079330522734</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.02912965745740718</v>
+        <v>0.009408997675821174</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.09254079330522734</v>
+        <v>1.8966235109157</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.009408997675821174</v>
+        <v>2.171715708961674</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.915467570859578</v>
+        <v>4.422398569837927</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.171715708961674</v>
+        <v>1.570484616754297e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.422398569837927</v>
+        <v>1103344025.425643</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.570484616754297e-16</v>
+        <v>1.091888777167941e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>1103344025.425643</v>
+        <v>191.1857777302241</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.091888777167941e-07</v>
+        <v>0.0001945884026019362</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>191.1857777302241</v>
+        <v>12.07128135898431</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001945884026019362</v>
+        <v>1.222752154536138</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>12.07128135898431</v>
+        <v>0.02835461130332749</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.222752154536138</v>
+        <v>3.428890246902803</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.02835461130332749</v>
+        <v>0.95939698403686</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.428890246902803</v>
+        <v>1.351112372759916</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.95939698403686</v>
+        <v>84</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.351112372759916</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>84</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>1.954175618297323</v>
       </c>
     </row>
@@ -5860,72 +5830,66 @@
         <v>3.72944006552378e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.5923608148732572</v>
+        <v>1.127809190728311e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.181133857317339</v>
+        <v>2.573546666790727e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.127809190728311e-06</v>
+        <v>-0.03188713411706279</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.573546666790727e-06</v>
+        <v>0.08807392855154313</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.03188713411706279</v>
+        <v>0.008772741116746207</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.08807392855154313</v>
+        <v>1.892615084555503</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.008772741116746207</v>
+        <v>2.160448939099777</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.910628024782471</v>
+        <v>4.437465719530459</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.160448939099777</v>
+        <v>1.559837749548532e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.437465719530459</v>
+        <v>1033515059.394686</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.559837749548532e-16</v>
+        <v>1.159878544744879e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>1033515059.394686</v>
+        <v>166.6145961305322</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.159878544744879e-07</v>
+        <v>0.0001681847336743154</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>166.6145961305322</v>
+        <v>9.130698752100793</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001681847336743154</v>
+        <v>1.616617140499557</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.130698752100793</v>
+        <v>0.01402150401343442</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.616617140499557</v>
+        <v>3.400682826883578</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01402150401343442</v>
+        <v>0.9583519175459007</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.400682826883578</v>
+        <v>1.321976867888624</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9583519175459007</v>
+        <v>88</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.321976867888624</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>88</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.9190435633996299</v>
       </c>
     </row>
@@ -5940,72 +5904,66 @@
         <v>3.736985742593833e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.6548143092915842</v>
+        <v>1.127809190728311e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.106562387177961</v>
+        <v>2.561309774758229e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.127809190728311e-06</v>
+        <v>-0.03347263623623659</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.561309774758229e-06</v>
+        <v>0.08624621101919391</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.03347263623623659</v>
+        <v>0.008558648390369157</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.08624621101919391</v>
+        <v>1.89129311807356</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.008558648390369157</v>
+        <v>2.211461829119869</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.905863433244064</v>
+        <v>4.503811714487712</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.211461829119869</v>
+        <v>1.643507942200604e-16</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.503811714487712</v>
+        <v>982216304.2923414</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.643507942200604e-16</v>
+        <v>1.219469154532701e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>982216304.2923414</v>
+        <v>158.5572427473544</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.219469154532701e-07</v>
+        <v>0.0001335882747271693</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>158.5572427473544</v>
+        <v>8.422602892905543</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001335882747271693</v>
+        <v>1.461515469308126</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.422602892905543</v>
+        <v>0.009476784202412486</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.461515469308126</v>
+        <v>3.372436777350517</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.009476784202412486</v>
+        <v>0.9590211679554158</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.372436777350517</v>
+        <v>1.357589097980703</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9590211679554158</v>
+        <v>88</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.357589097980703</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>88</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.5444645344077457</v>
       </c>
     </row>
@@ -6020,72 +5978,66 @@
         <v>3.735893999985405e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.7220481109730343</v>
+        <v>1.127809190728311e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.012026874544788</v>
+        <v>2.54862787502066e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.127809190728311e-06</v>
+        <v>-0.03429509891385499</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.54862787502066e-06</v>
+        <v>0.08571763161300745</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.03429509891385499</v>
+        <v>0.008523760642154652</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.08571763161300745</v>
+        <v>1.892900332997095</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.008523760642154652</v>
+        <v>2.280347741728223</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.906740452034414</v>
+        <v>4.199389152122834</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.280347741728223</v>
+        <v>2.019510682197229e-16</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.199389152122834</v>
+        <v>775983362.9015151</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>2.019510682197229e-16</v>
+        <v>1.541350446564837e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>775983362.9015151</v>
+        <v>121.6048719787117</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.541350446564837e-07</v>
+        <v>0.0001237138720675976</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>121.6048719787117</v>
+        <v>9.052431820659322</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001237138720675976</v>
+        <v>1.247051204334273</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.052431820659322</v>
+        <v>0.01013792152272343</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.247051204334273</v>
+        <v>3.275404755602796</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01013792152272343</v>
+        <v>0.9574834080474051</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.275404755602796</v>
+        <v>1.405348459465197</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9574834080474051</v>
+        <v>59</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.405348459465197</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.4233098861353131</v>
       </c>
     </row>
@@ -6100,72 +6052,66 @@
         <v>3.728434105597191e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.7927820545954953</v>
+        <v>1.127809190728311e-06</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.8995403617001072</v>
+        <v>2.535725133054427e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.127809190728311e-06</v>
+        <v>-0.03481680438680042</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>2.535725133054427e-06</v>
+        <v>0.08565419764015447</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.03481680438680042</v>
+        <v>0.00854897617283798</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.08565419764015447</v>
+        <v>1.888229636701896</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.00854897617283798</v>
+        <v>2.299315684578192</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.90009786838611</v>
+        <v>4.15361918618229</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.299315684578192</v>
+        <v>2.06426307955721e-16</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.15361918618229</v>
+        <v>740417209.477985</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>2.06426307955721e-16</v>
+        <v>1.605367475323815e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>740417209.477985</v>
+        <v>113.1665442259229</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.605367475323815e-07</v>
+        <v>0.0001202875876867708</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>113.1665442259229</v>
+        <v>10.38640084137289</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001202875876867708</v>
+        <v>1.158310093089077</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>10.38640084137289</v>
+        <v>0.01297630288213545</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.158310093089077</v>
+        <v>3.15572137660869</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01297630288213545</v>
+        <v>0.9566613036479772</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.15572137660869</v>
+        <v>1.388813315706796</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9566613036479772</v>
+        <v>50</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.388813315706796</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.4203664027680814</v>
       </c>
     </row>
@@ -6180,72 +6126,66 @@
         <v>3.714923480767742e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.8670760815845037</v>
+        <v>1.127809190728311e-06</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.7677175835076069</v>
+        <v>2.522650213121399e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.127809190728311e-06</v>
+        <v>-0.03546985123610513</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>2.522650213121399e-06</v>
+        <v>0.08566593573085639</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.03546985123610513</v>
+        <v>0.008596836491219286</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.08566593573085639</v>
+        <v>1.891118262633862</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.008596836491219286</v>
+        <v>2.291953184936455</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.895305375561319</v>
+        <v>4.140224269414963</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.291953184936455</v>
+        <v>2.077641756432497e-16</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.140224269414963</v>
+        <v>729092374.1941646</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>2.077641756432497e-16</v>
+        <v>1.632527269388699e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>729092374.1941646</v>
+        <v>110.4423850472976</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.632527269388699e-07</v>
+        <v>0.000127399031337061</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>110.4423850472976</v>
+        <v>11.02325768695207</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.000127399031337061</v>
+        <v>1.221563260271249</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>11.02325768695207</v>
+        <v>0.01548053785382308</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.221563260271249</v>
+        <v>3.246916427491198</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01548053785382308</v>
+        <v>0.9578775465534941</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.246916427491198</v>
+        <v>1.429513125232833</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9578775465534941</v>
+        <v>50</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.429513125232833</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.4339811101495571</v>
       </c>
     </row>
@@ -6260,72 +6200,66 @@
         <v>3.693896825045898e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.94586639705304</v>
+        <v>1.127809190728311e-06</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.6119164007330329</v>
+        <v>2.509336974842611e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1.127809190728311e-06</v>
+        <v>-0.03644559835225093</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>2.509336974842611e-06</v>
+        <v>0.08560474408715434</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.03644559835225093</v>
+        <v>0.008656388687337131</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.08560474408715434</v>
+        <v>1.885814048402716</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.008656388687337131</v>
+        <v>2.223433583816986</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.892421135154758</v>
+        <v>4.094431662761091</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>2.223433583816986</v>
+        <v>2.12437481812387e-16</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.094431662761091</v>
+        <v>709054520.218583</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>2.12437481812387e-16</v>
+        <v>1.677549387072445e-07</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>709054520.218583</v>
+        <v>106.8047098979973</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1.677549387072445e-07</v>
+        <v>0.000158759938430454</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>106.8047098979973</v>
+        <v>10.04238357212409</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.000158759938430454</v>
+        <v>1.523322812598898</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>10.04238357212409</v>
+        <v>0.01601085530020691</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.523322812598898</v>
+        <v>3.243916885297631</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01601085530020691</v>
+        <v>0.9565049665524008</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.243916885297631</v>
+        <v>1.463716930295343</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9565049665524008</v>
+        <v>19</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.463716930295343</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.4011378427430201</v>
       </c>
     </row>
@@ -6340,72 +6274,66 @@
         <v>3.662658351604453e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>1.030502302560001</v>
+        <v>1.127809190728311e-06</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.4247847744023669</v>
+        <v>2.495666869704845e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1.127809190728311e-06</v>
+        <v>-0.03796140444446355</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>2.495666869704845e-06</v>
+        <v>0.08520103071954538</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.03796140444446355</v>
+        <v>0.008699813760358477</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.08520103071954538</v>
+        <v>1.884324453089806</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.008699813760358477</v>
+        <v>2.367839892071697</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.886980673143343</v>
+        <v>4.027137880528734</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>2.367839892071697</v>
+        <v>2.195964931838042e-16</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.027137880528734</v>
+        <v>702059098.0225495</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>2.195964931838042e-16</v>
+        <v>1.693490463841392e-07</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>702059098.0225495</v>
+        <v>108.2362517106913</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>1.693490463841392e-07</v>
+        <v>0.000149181211360486</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>108.2362517106913</v>
+        <v>8.761953320747873</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.000149181211360486</v>
+        <v>1.656970798924421</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>8.761953320747873</v>
+        <v>0.01145291400028528</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.656970798924421</v>
+        <v>3.289728798470145</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01145291400028528</v>
+        <v>0.9581988638007457</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.289728798470145</v>
+        <v>1.408668033606745</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9581988638007457</v>
+        <v>17</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.408668033606745</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.3560327664001256</v>
       </c>
     </row>
@@ -6420,72 +6348,66 @@
         <v>3.616397725095468e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>1.122536880947651</v>
+        <v>1.127809190728311e-06</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.1952134021969916</v>
+        <v>2.48141413913225e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1.127809190728311e-06</v>
+        <v>-0.04055588402933227</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>2.48141413913225e-06</v>
+        <v>0.08355199511927447</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.04055588402933227</v>
+        <v>0.00862408000049659</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.08355199511927447</v>
+        <v>1.858441250564849</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.00862408000049659</v>
+        <v>1.991966614874657</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.845120212629801</v>
+        <v>4.890493777748775</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.991966614874657</v>
+        <v>3.092578964146783e-16</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.890493777748775</v>
+        <v>498174963.5346174</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>3.092578964146783e-16</v>
+        <v>2.37608870165027e-07</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>498174963.5346174</v>
+        <v>76.75109722874873</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>2.37608870165027e-07</v>
+        <v>0.0001252172877272764</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>76.75109722874873</v>
+        <v>9.15298866042372</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001252172877272764</v>
+        <v>1.232494799567268</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>9.15298866042372</v>
+        <v>0.01049035393492432</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.232494799567268</v>
+        <v>3.191444122344139</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01049035393492432</v>
+        <v>0.95844187397652</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.191444122344139</v>
+        <v>1.48577780098925</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.95844187397652</v>
+        <v>23</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.48577780098925</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.3563013881283988</v>
       </c>
     </row>
@@ -6500,72 +6422,66 @@
         <v>3.546871981773505e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>1.222309374690512</v>
+        <v>1.127809190728311e-06</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>0.08954617112983554</v>
+        <v>2.466160086707312e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.127809190728311e-06</v>
+        <v>-0.04481343174051176</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>2.466160086707312e-06</v>
+        <v>0.07921258000311245</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.04481343174051176</v>
+        <v>0.0082798522954576</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.07921258000311245</v>
+        <v>1.861011237887855</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.0082798522954576</v>
+        <v>1.936220972055933</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.840886572746043</v>
+        <v>4.096415058124901</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.936220972055933</v>
+        <v>4.8584161377569e-16</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.096415058124901</v>
+        <v>317859830.1696922</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>4.8584161377569e-16</v>
+        <v>3.731232318087285e-07</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>317859830.1696922</v>
+        <v>49.08694508301372</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>3.731232318087285e-07</v>
+        <v>0.0001308801706215724</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>49.08694508301372</v>
+        <v>9.388810110158769</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001308801706215724</v>
+        <v>1.261265772754208</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>9.388810110158769</v>
+        <v>0.01153705501190086</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.261265772754208</v>
+        <v>3.148910839301748</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01153705501190086</v>
+        <v>0.9595030572903978</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.148910839301748</v>
+        <v>1.539325161165652</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9595030572903978</v>
+        <v>23</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.539325161165652</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.317786641937105</v>
       </c>
     </row>
@@ -6580,72 +6496,66 @@
         <v>3.44425255797188e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>1.325771784596575</v>
+        <v>1.127809190728311e-06</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>0.4292349012005894</v>
+        <v>2.44954701842532e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.127809190728311e-06</v>
+        <v>-0.05026523384036259</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>2.44954701842532e-06</v>
+        <v>0.07331594189210226</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.05026523384036259</v>
+        <v>0.007899021139310158</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.07331594189210226</v>
+        <v>1.860415780070634</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.007899021139310158</v>
+        <v>1.91031103528283</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.836008371930786</v>
+        <v>3.947805961519787</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.91031103528283</v>
+        <v>5.231075899794221e-16</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3.947805961519787</v>
+        <v>301372481.8955808</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>5.231075899794221e-16</v>
+        <v>3.93970193728278e-07</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>301372481.8955808</v>
+        <v>47.51144189735611</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>3.93970193728278e-07</v>
+        <v>0.0001398536904297292</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>47.51144189735611</v>
+        <v>9.594393774457268</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001398536904297292</v>
+        <v>1.305007914143183</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>9.594393774457268</v>
+        <v>0.01287386672000702</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.305007914143183</v>
+        <v>3.094756760347659</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01287386672000702</v>
+        <v>0.9605145065186302</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.094756760347659</v>
+        <v>1.55768693175572</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9605145065186302</v>
+        <v>23</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.55768693175572</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.2827589573451033</v>
       </c>
     </row>
@@ -6660,72 +6570,66 @@
         <v>3.302732348559305e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>1.423476249170297</v>
+        <v>1.132617604340793e-06</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>0.7944484149506108</v>
+        <v>2.431611337371636e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.132617604340793e-06</v>
+        <v>-0.05589934704645385</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>2.431611337371636e-06</v>
+        <v>0.06988590793216071</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.05589934704645385</v>
+        <v>0.008008004445627393</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.06988590793216071</v>
+        <v>1.860079510219586</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.008008004445627393</v>
+        <v>1.937721211513241</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.837521311543366</v>
+        <v>4.006256897405725</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.937721211513241</v>
+        <v>5.07954754068206e-16</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.006256897405725</v>
+        <v>306191126.5807814</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>5.07954754068206e-16</v>
+        <v>3.858126781503873e-07</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>306191126.5807814</v>
+        <v>47.6222851042637</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>3.858126781503873e-07</v>
+        <v>0.0001381757368865643</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>47.6222851042637</v>
+        <v>9.186472749614502</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001381757368865643</v>
+        <v>1.316731465310671</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>9.186472749614502</v>
+        <v>0.01166082751903649</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.316731465310671</v>
+        <v>3.060983807404883</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01166082751903649</v>
+        <v>0.9603764689642605</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.060983807404883</v>
+        <v>1.547182572882368</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9603764689642605</v>
+        <v>23</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.547182572882368</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.2631858151255965</v>
       </c>
     </row>
@@ -6740,72 +6644,66 @@
         <v>3.125971369924828e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>1.505399981379829</v>
+        <v>1.140873758045286e-06</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>1.137117212260142</v>
+        <v>2.412819424739117e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.140873758045286e-06</v>
+        <v>-0.06080633996837068</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>2.412819424739117e-06</v>
+        <v>0.07162590039662113</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.06080633996837068</v>
+        <v>0.008828100148879043</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.07162590039662113</v>
+        <v>1.865042872631746</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.008828100148879043</v>
+        <v>1.824104073109472</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.83652541945057</v>
+        <v>4.191210331661807</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.824104073109472</v>
+        <v>4.641129712549368e-16</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.191210331661807</v>
+        <v>322349172.5998389</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>4.641129712549368e-16</v>
+        <v>3.690921185681686e-07</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>322349172.5998389</v>
+        <v>48.22550966006664</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>3.690921185681686e-07</v>
+        <v>0.0001330377537135165</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>48.22550966006664</v>
+        <v>8.662662711054768</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001330377537135165</v>
+        <v>1.265905147792529</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>8.662662711054768</v>
+        <v>0.009983382561448035</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.265905147792529</v>
+        <v>3.009132369537381</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.009983382561448035</v>
+        <v>0.9591021998294469</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.009132369537381</v>
+        <v>1.571951638535423</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9591021998294469</v>
+        <v>23</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.571951638535423</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.2620860631391588</v>
       </c>
     </row>
@@ -6820,72 +6718,66 @@
         <v>2.92531538443499e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>1.566281294912216</v>
+        <v>1.134150793166087e-06</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>1.420061472805529</v>
+        <v>2.39381021276948e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.134150793166087e-06</v>
+        <v>-0.0646179606734818</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>2.39381021276948e-06</v>
+        <v>0.07649733777873914</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.0646179606734818</v>
+        <v>0.01002696380975637</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.07649733777873914</v>
+        <v>1.872864328966597</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.01002696380975637</v>
+        <v>1.793789397972961</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.841758605324358</v>
+        <v>4.609099646508209</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.793789397972961</v>
+        <v>3.83769471059751e-16</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.609099646508209</v>
+        <v>390071960.3896413</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>3.83769471059751e-16</v>
+        <v>3.055745253778561e-07</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>390071960.3896413</v>
+        <v>58.39287917198322</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>3.055745253778561e-07</v>
+        <v>0.0001343294723192327</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>58.39287917198322</v>
+        <v>8.619178822351451</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001343294723192327</v>
+        <v>1.248202518271433</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>8.619178822351451</v>
+        <v>0.009979369217449935</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.248202518271433</v>
+        <v>2.929906224307319</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.009979369217449935</v>
+        <v>0.9590220459096498</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.929906224307319</v>
+        <v>1.572698516069738</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9590220459096498</v>
+        <v>35</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.572698516069738</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.2757174765296418</v>
       </c>
     </row>
@@ -6900,72 +6792,66 @@
         <v>2.71517358209713e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>1.607623250642456</v>
+        <v>1.097544404625782e-06</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>1.639630936633345</v>
+        <v>2.375183286010897e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1.097544404625782e-06</v>
+        <v>-0.06737743115375266</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>2.375183286010897e-06</v>
+        <v>0.08152125930094546</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.06737743115375266</v>
+        <v>0.01118332673898108</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.08152125930094546</v>
+        <v>1.887006259614777</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.01118332673898108</v>
+        <v>1.995128019544528</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.864068008275221</v>
+        <v>4.574495654430773</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.995128019544528</v>
+        <v>3.040289512444689e-16</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>4.574495654430773</v>
+        <v>484092136.9831225</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>3.040289512444689e-16</v>
+        <v>2.465600231216031e-07</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>484092136.9831225</v>
+        <v>71.24772450011247</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>2.465600231216031e-07</v>
+        <v>0.000142562844487203</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>71.24772450011247</v>
+        <v>7.85237750235533</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.000142562844487203</v>
+        <v>1.414241373214692</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>7.85237750235533</v>
+        <v>0.008790401103178882</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.414241373214692</v>
+        <v>3.033847997191231</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.008790401103178882</v>
+        <v>0.9589931065662262</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>3.033847997191231</v>
+        <v>1.528919563139702</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9589931065662262</v>
+        <v>74</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.528919563139702</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>74</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.2649154074366055</v>
       </c>
     </row>
@@ -6980,72 +6866,66 @@
         <v>2.50596941478538e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>1.631907238094716</v>
+        <v>1.046431321910033e-06</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>1.804089446368217</v>
+        <v>2.357304448743771e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1.046431321910033e-06</v>
+        <v>-0.0696054092311031</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>2.357304448743771e-06</v>
+        <v>0.08580527810059584</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.0696054092311031</v>
+        <v>0.01220387886814602</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.08580527810059584</v>
+        <v>1.895666335912679</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.01220387886814602</v>
+        <v>2.172964064129523</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.874232668483517</v>
+        <v>4.534075938831007</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>2.172964064129523</v>
+        <v>3.094737382064973e-16</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>4.534075938831007</v>
+        <v>472580689.2958813</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>3.094737382064973e-16</v>
+        <v>2.536813161902483e-07</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>472580689.2958813</v>
+        <v>69.11554608141232</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>2.536813161902483e-07</v>
+        <v>0.0001559844645124752</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>69.11554608141232</v>
+        <v>8.580331693056214</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001559844645124752</v>
+        <v>1.396660590056713</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>8.580331693056214</v>
+        <v>0.01148390259111569</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.396660590056713</v>
+        <v>2.961744501950927</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.01148390259111569</v>
+        <v>0.9610374801705117</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>2.961744501950927</v>
+        <v>1.516649438086542</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9610374801705117</v>
+        <v>71</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.516649438086542</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>71</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.2607696388202457</v>
       </c>
     </row>
@@ -7060,72 +6940,66 @@
         <v>2.303095352559179e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>1.638285024888133</v>
+        <v>9.89298271324238e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>1.908392461120453</v>
+        <v>2.340333975346611e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>9.89298271324238e-07</v>
+        <v>-0.07160381987378477</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>2.340333975346611e-06</v>
+        <v>0.08951393871431811</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.07160381987378477</v>
+        <v>0.0131348912858314</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.08951393871431811</v>
+        <v>1.895913098678878</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.0131348912858314</v>
+        <v>2.04984409487954</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.877926834836575</v>
+        <v>4.479326342265736</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>2.04984409487954</v>
+        <v>3.170851999780571e-16</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.479326342265736</v>
+        <v>459988325.4370191</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>3.170851999780571e-16</v>
+        <v>2.60500315055675e-07</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>459988325.4370191</v>
+        <v>67.09182267392765</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>2.60500315055675e-07</v>
+        <v>0.0001498545076107576</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>67.09182267392765</v>
+        <v>9.693081665790022</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001498545076107576</v>
+        <v>1.20217425195525</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>9.693081665790022</v>
+        <v>0.01407970496844412</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.20217425195525</v>
+        <v>2.843350596648361</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.01407970496844412</v>
+        <v>0.9616039922147906</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>2.843350596648361</v>
+        <v>1.537795268357173</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9616039922147906</v>
+        <v>67</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.537795268357173</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.2683547880201173</v>
       </c>
     </row>
@@ -7140,72 +7014,66 @@
         <v>2.110154441605722e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>1.624684816121094</v>
+        <v>9.273356620313444e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>1.94170530360735</v>
+        <v>2.324355794169659e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>9.273356620313444e-07</v>
+        <v>-0.07325849154345715</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>2.324355794169659e-06</v>
+        <v>0.09220920779420146</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.07325849154345715</v>
+        <v>0.01386258629548863</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.09220920779420146</v>
+        <v>1.898222896659569</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.01386258629548863</v>
+        <v>2.089028255377164</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.885908454730693</v>
+        <v>4.432643124179885</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>2.089028255377164</v>
+        <v>3.237992552676307e-16</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.432643124179885</v>
+        <v>454053606.9899551</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>3.237992552676307e-16</v>
+        <v>2.6468092192986e-07</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>454053606.9899551</v>
+        <v>66.75596920555746</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>2.6468092192986e-07</v>
+        <v>0.0001413664398158124</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>66.75596920555746</v>
+        <v>9.517734643261873</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001413664398158124</v>
+        <v>1.172977100904244</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>9.517734643261873</v>
+        <v>0.01280600023981378</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.172977100904244</v>
+        <v>2.777787773930754</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.01280600023981378</v>
+        <v>0.9622345628789748</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>2.777787773930754</v>
+        <v>1.515210371147778</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9622345628789748</v>
+        <v>67</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.515210371147778</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.2748630004497143</v>
       </c>
     </row>
@@ -7220,72 +7088,66 @@
         <v>1.930691804100274e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>1.591321347765541</v>
+        <v>8.628432026474028e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>1.906544492231319</v>
+        <v>2.309436822325357e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>8.628432026474028e-07</v>
+        <v>-0.07450113264129643</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>2.309436822325357e-06</v>
+        <v>0.09364125123342991</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.07450113264129643</v>
+        <v>0.01431099108474706</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.09364125123342991</v>
+        <v>1.89502467849604</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.01431099108474706</v>
+        <v>2.155569444048537</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.888072148644376</v>
+        <v>4.451263799715656</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>2.155569444048537</v>
+        <v>3.210958658349638e-16</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.451263799715656</v>
+        <v>455660100.3058283</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>3.210958658349638e-16</v>
+        <v>2.63450838395757e-07</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>455660100.3058283</v>
+        <v>66.66789102246649</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>2.63450838395757e-07</v>
+        <v>0.0001345982676019486</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>66.66789102246649</v>
+        <v>8.392950029552619</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001345982676019486</v>
+        <v>1.221698404092747</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>8.392950029552619</v>
+        <v>0.009481318699818917</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.221698404092747</v>
+        <v>2.94376448316115</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.009481318699818917</v>
+        <v>0.9622055031006417</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>2.94376448316115</v>
+        <v>1.500081921580387</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9622055031006417</v>
+        <v>67</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.500081921580387</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.2788396204405272</v>
       </c>
     </row>
@@ -7300,72 +7162,66 @@
         <v>1.7667089223931e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>1.538487321143239</v>
+        <v>7.994231918928073e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>1.806897727359363</v>
+        <v>2.295588168581411e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>7.994231918928073e-07</v>
+        <v>-0.07543305799473145</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>2.295588168581411e-06</v>
+        <v>0.09403528058826206</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.07543305799473145</v>
+        <v>0.01452375622808413</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.09403528058826206</v>
+        <v>1.893189146222026</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.01452375622808413</v>
+        <v>1.95678184094078</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.890327233866561</v>
+        <v>4.449211939117797</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.95678184094078</v>
+        <v>3.213920962169239e-16</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>4.449211939117797</v>
+        <v>455265825.4314535</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>3.213920962169239e-16</v>
+        <v>2.641903240177597e-07</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>455265825.4314535</v>
+        <v>66.61396654519457</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>2.641903240177597e-07</v>
+        <v>0.0001366194863325399</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>66.61396654519457</v>
+        <v>7.657984996003135</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001366194863325399</v>
+        <v>1.386551190086386</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>7.657984996003135</v>
+        <v>0.008012013462376965</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.386551190086386</v>
+        <v>3.061198370894707</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.008012013462376965</v>
+        <v>0.9623010806369834</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>3.061198370894707</v>
+        <v>1.507859472822279</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9623010806369834</v>
+        <v>71</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.507859472822279</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>71</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.2968533340322115</v>
       </c>
     </row>
@@ -7380,72 +7236,66 @@
         <v>1.619020923979983e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>1.465860772384146</v>
+        <v>7.394892287417804e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>1.644318383351422</v>
+        <v>2.282769615601719e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>7.394892287417804e-07</v>
+        <v>-0.07614387154385298</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>2.282769615601719e-06</v>
+        <v>0.09342052595984859</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.07614387154385298</v>
+        <v>0.01451558726273419</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.09342052595984859</v>
+        <v>1.900171234117445</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.01451558726273419</v>
+        <v>1.940713082256969</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.89772152112713</v>
+        <v>4.549750215037959</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.940713082256969</v>
+        <v>3.073450845647378e-16</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>4.549750215037959</v>
+        <v>498212111.6616283</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>3.073450845647378e-16</v>
+        <v>2.424884350916457e-07</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>498212111.6616283</v>
+        <v>76.28775489093965</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>2.424884350916457e-07</v>
+        <v>0.0001508252341797214</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>76.28775489093965</v>
+        <v>8.366413916196711</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001508252341797214</v>
+        <v>1.477156913776758</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>8.366413916196711</v>
+        <v>0.01055729609191891</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.477156913776758</v>
+        <v>3.066874464994811</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.01055729609191891</v>
+        <v>0.9624546757853563</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>3.066874464994811</v>
+        <v>1.501851766155002</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9624546757853563</v>
+        <v>71</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.501851766155002</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>71</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.3606115833778846</v>
       </c>
     </row>
@@ -7460,72 +7310,66 @@
         <v>1.487922344044487e-07</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>1.373550253121745</v>
+        <v>6.837907768956697e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>1.42318530198105</v>
+        <v>2.270914871026858e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>6.837907768956697e-07</v>
+        <v>-0.07661272430115981</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>2.270914871026858e-06</v>
+        <v>0.09179801013440746</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-0.07661272430115981</v>
+        <v>0.01428636941401141</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.09179801013440746</v>
+        <v>1.902779970114951</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.01428636941401141</v>
+        <v>1.888128189179034</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.901205498956146</v>
+        <v>4.775061956684715</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.888128189179034</v>
+        <v>2.790251551127812e-16</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>4.775061956684715</v>
+        <v>550699203.4505597</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>2.790251551127812e-16</v>
+        <v>2.190280380282053e-07</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>550699203.4505597</v>
+        <v>84.61985071933169</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>2.190280380282053e-07</v>
+        <v>0.0001761128178668197</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>84.61985071933169</v>
+        <v>11.61883873420982</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0001761128178668197</v>
+        <v>1.128240348207034</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>11.61883873420982</v>
+        <v>0.02377477490177791</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.128240348207034</v>
+        <v>2.863321060550381</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.02377477490177791</v>
+        <v>0.9635478266479288</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>2.863321060550381</v>
+        <v>1.478642887109697</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9635478266479288</v>
+        <v>92</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.478642887109697</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>92</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.5581107124526961</v>
       </c>
     </row>
@@ -7540,72 +7384,66 @@
         <v>1.373136884938853e-07</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>1.262887684530152</v>
+        <v>6.324202171011938e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>1.152125906169155</v>
+        <v>2.259952600490306e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>6.324202171011938e-07</v>
+        <v>-0.07678026678580607</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>2.259952600490306e-06</v>
+        <v>0.08926743852841855</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-0.07678026678580607</v>
+        <v>0.01385391305046743</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.08926743852841855</v>
+        <v>1.91097901277408</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.01385391305046743</v>
+        <v>2.030678792870178</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.914004790714617</v>
+        <v>4.123263085632805</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>2.030678792870178</v>
+        <v>2.463599698668616e-16</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>4.123263085632805</v>
+        <v>608579919.9006574</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>2.463599698668616e-16</v>
+        <v>1.985004473549539e-07</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>608579919.9006574</v>
+        <v>91.24422351735775</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>1.985004473549539e-07</v>
+        <v>0.0002036847665380087</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>91.24422351735775</v>
+        <v>13.51028933376861</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0002036847665380087</v>
+        <v>1.024358064060125</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>13.51028933376861</v>
+        <v>0.03717815634049291</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.024358064060125</v>
+        <v>2.762038086320859</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.03717815634049291</v>
+        <v>0.9629820167910667</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>2.762038086320859</v>
+        <v>1.48097035081963</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9629820167910667</v>
+        <v>91</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.48097035081963</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>91</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.8630707656437833</v>
       </c>
     </row>
@@ -7620,72 +7458,66 @@
         <v>1.273947696274884e-07</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>1.136690556426818</v>
+        <v>5.855273106869762e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>0.8438871520308595</v>
+        <v>2.249809297068897e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>5.855273106869762e-07</v>
+        <v>-0.07662187465525391</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>2.249809297068897e-06</v>
+        <v>0.08588397709936239</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-0.07662187465525391</v>
+        <v>0.01323723203655755</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.08588397709936239</v>
+        <v>1.934635705602895</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.01323723203655755</v>
+        <v>1.959734666337367</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.956286011196768</v>
+        <v>4.512212715925354</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.959734666337367</v>
+        <v>2.057183839481765e-16</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>4.512212715925354</v>
+        <v>722410880.2635082</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>2.057183839481765e-16</v>
+        <v>1.68337926082263e-07</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>722410880.2635082</v>
+        <v>107.3597917887264</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>1.68337926082263e-07</v>
+        <v>0.0001772679474485197</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>107.3597917887264</v>
+        <v>11.31762860305917</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0001772679474485197</v>
+        <v>1.300327990537871</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>11.31762860305917</v>
+        <v>0.02270602398878762</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.300327990537871</v>
+        <v>3.274149755502245</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.02270602398878762</v>
+        <v>0.9632606011693169</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>3.274149755502245</v>
+        <v>1.26473311864225</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9632606011693169</v>
+        <v>121</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.26473311864225</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>121</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>1.251883041882347</v>
       </c>
     </row>
@@ -7700,72 +7532,66 @@
         <v>1.189495155266508e-07</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.9995979606549739</v>
+        <v>5.431376126231964e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>0.5170005888565008</v>
+        <v>2.240409962377806e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>5.431376126231964e-07</v>
+        <v>-0.07612074363870443</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>2.240409962377806e-06</v>
+        <v>0.08164067890650203</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>-0.07612074363870443</v>
+        <v>0.01245029340069733</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.08164067890650203</v>
+        <v>1.93227069169483</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.01245029340069733</v>
+        <v>2.037230987280952</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.963745265390929</v>
+        <v>5.99722274097829</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>2.037230987280952</v>
+        <v>7.230552756083972e-17</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>5.99722274097829</v>
+        <v>2008134189.510058</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>7.230552756083972e-17</v>
+        <v>6.048261506221982e-08</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>2008134189.510058</v>
+        <v>291.5794817966271</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>6.048261506221982e-08</v>
+        <v>0.000124628817941827</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>291.5794817966271</v>
+        <v>9.601427548861665</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.000124628817941827</v>
+        <v>1.3672164960896</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>9.601427548861665</v>
+        <v>0.01148920805906124</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.3672164960896</v>
+        <v>3.776830496987943</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.01148920805906124</v>
+        <v>0.9614338283957835</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>3.776830496987943</v>
+        <v>1.219819022717393</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9614338283957835</v>
+        <v>159</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.219819022717393</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>159</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>1.908942514703001</v>
       </c>
     </row>
@@ -7780,72 +7606,66 @@
         <v>1.118778857408908e-07</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.8579280446358815</v>
+        <v>5.049382029622048e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>0.1941560911005924</v>
+        <v>2.231681405242536e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>5.049382029622048e-07</v>
+        <v>-0.07523959446761479</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>2.231681405242536e-06</v>
+        <v>0.07663779839517222</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>-0.07523959446761479</v>
+        <v>0.01152574047851022</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.07663779839517222</v>
+        <v>1.929553725819169</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.01152574047851022</v>
+        <v>2.549140795463267</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.967707500047109</v>
+        <v>5.138237724982067</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>2.549140795463267</v>
+        <v>2.934760154956304e-17</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>5.138237724982067</v>
+        <v>4889147885.684272</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>2.934760154956304e-17</v>
+        <v>2.476369661366449e-08</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>4889147885.684272</v>
+        <v>701.5182308609491</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>2.476369661366449e-08</v>
+        <v>0.0001193453230781173</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>701.5182308609491</v>
+        <v>8.491394636616146</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001193453230781173</v>
+        <v>1.761480304058969</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>8.491394636616146</v>
+        <v>0.008605249262341869</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.761480304058969</v>
+        <v>4.029170879089077</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.008605249262341869</v>
+        <v>0.9617443906659868</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>4.029170879089077</v>
+        <v>1.058667653784922</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9617443906659868</v>
+        <v>161</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.058667653784922</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>161</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>2.288443506057587</v>
       </c>
     </row>
@@ -7860,72 +7680,66 @@
         <v>1.060602283783512e-07</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.7192672392517568</v>
+        <v>4.704253568160534e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-0.101472803283102</v>
+        <v>2.223558260502627e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>4.704253568160534e-07</v>
+        <v>-0.07394103374292205</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>2.223558260502627e-06</v>
+        <v>0.07101081242126547</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.07394103374292205</v>
+        <v>0.01050205363527408</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.07101081242126547</v>
+        <v>1.928991822480898</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.01050205363527408</v>
+        <v>2.813252790386994</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.967834289922512</v>
+        <v>5.000891125374576</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>2.813252790386994</v>
+        <v>1.842503206492643e-17</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>5.000891125374576</v>
+        <v>7787185677.006911</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>1.842503206492643e-17</v>
+        <v>1.554414499879643e-08</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>7787185677.006911</v>
+        <v>1117.298749079246</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>1.554414499879643e-08</v>
+        <v>0.0001132420096627427</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>1117.298749079246</v>
+        <v>7.92481705815614</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0001132420096627427</v>
+        <v>1.958763550813035</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>7.92481705815614</v>
+        <v>0.007111906837187053</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.958763550813035</v>
+        <v>4.227423522693016</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.007111906837187053</v>
+        <v>0.961255939032818</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>4.227423522693016</v>
+        <v>1.060539516603987</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.961255939032818</v>
+        <v>161</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.060539516603987</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>161</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>2.680989623518069</v>
       </c>
     </row>
@@ -7940,72 +7754,66 @@
         <v>1.013610688738529e-07</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.5912746834531099</v>
+        <v>4.393110084758075e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-0.3510623697182789</v>
+        <v>2.215981997414284e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>4.393110084758075e-07</v>
+        <v>-0.07225080482276258</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>2.215981997414284e-06</v>
+        <v>0.06497821943763175</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>-0.07225080482276258</v>
+        <v>0.00943555213075048</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.06497821943763175</v>
+        <v>1.929550016077773</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.00943555213075048</v>
+        <v>3.024408857707613</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.969074025941037</v>
+        <v>5.607859294901267</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>3.024408857707613</v>
+        <v>1.411030815769391e-17</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>5.607859294901267</v>
+        <v>10208117092.62611</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>1.411030815769391e-17</v>
+        <v>1.186853940860768e-08</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>10208117092.62611</v>
+        <v>1470.373897852367</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>1.186853940860768e-08</v>
+        <v>8.77386073914811e-05</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>1470.373897852367</v>
+        <v>7.222454922374145</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>8.77386073914811e-05</v>
+        <v>1.377613081445235</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>7.222454922374145</v>
+        <v>0.004576784003147445</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.377613081445235</v>
+        <v>4.372158226295126</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.004576784003147445</v>
+        <v>0.9619264321519143</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>4.372158226295126</v>
+        <v>1.070362477379875</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9619264321519143</v>
+        <v>173</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.070362477379875</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>173</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>3.078814429007267</v>
       </c>
     </row>
@@ -8020,72 +7828,66 @@
         <v>9.76418779835415e-08</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.4799254346143305</v>
+        <v>4.118176674770721e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-0.5439310901988788</v>
+        <v>2.208894346372854e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>4.118176674770721e-07</v>
+        <v>-0.07030823161654216</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>2.208894346372854e-06</v>
+        <v>0.05875079028042766</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>-0.07030823161654216</v>
+        <v>0.008389064903596187</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.05875079028042766</v>
+        <v>1.92002289191189</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.008389064903596187</v>
+        <v>3.376297526523768</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.961990714214625</v>
+        <v>6.266222135167406</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>3.376297526523768</v>
+        <v>1.337534629760441e-17</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>6.266222135167406</v>
+        <v>11031558225.90567</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>1.337534629760441e-17</v>
+        <v>1.096471737011214e-08</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>11031558225.90567</v>
+        <v>1627.716471207297</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>1.096471737011214e-08</v>
+        <v>9.070216068466014e-05</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>1627.716471207297</v>
+        <v>7.532515177158547</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>9.070216068466014e-05</v>
+        <v>1.20604810843031</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>7.532515177158547</v>
+        <v>0.00514633038451919</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.20604810843031</v>
+        <v>4.184912485225274</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.00514633038451919</v>
+        <v>0.960598110329322</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>4.184912485225274</v>
+        <v>1.043367291239044</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.960598110329322</v>
+        <v>192</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.043367291239044</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>192</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>2.950191657100609</v>
       </c>
     </row>
@@ -8100,72 +7902,66 @@
         <v>9.477255493663103e-08</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0.3884378647758626</v>
+        <v>3.880177302542277e-07</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>-0.6780332000331208</v>
+        <v>2.202234066949666e-06</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>3.880177302542277e-07</v>
+        <v>-0.06824940992211183</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>2.202234066949666e-06</v>
+        <v>0.0526545975272649</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>-0.06824940992211183</v>
+        <v>0.007425738854903525</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.0526545975272649</v>
+        <v>1.916790254296069</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.007425738854903525</v>
+        <v>2.982498188569272</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.960546718557882</v>
+        <v>6.193702541664234</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>2.982498188569272</v>
+        <v>1.369039313534717e-17</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>6.193702541664234</v>
+        <v>10924315352.90919</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>1.369039313534717e-17</v>
+        <v>1.104424311058811e-08</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>10924315352.90919</v>
+        <v>1633.820633613198</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>1.104424311058811e-08</v>
+        <v>9.202167140563968e-05</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>1633.820633613198</v>
+        <v>7.115392437677737</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>9.202167140563968e-05</v>
+        <v>1.342631216785477</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>7.115392437677737</v>
+        <v>0.004658947675347502</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.342631216785477</v>
+        <v>4.223423700294465</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.004658947675347502</v>
+        <v>0.9611947360529308</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>4.223423700294465</v>
+        <v>1.034443545766838</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.9611947360529308</v>
+        <v>176</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>1.034443545766838</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>176</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>2.82700174002148</v>
       </c>
     </row>
@@ -8180,72 +7976,66 @@
         <v>9.261333529978205e-08</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0.3172217849084535</v>
+        <v>3.676642018032375e-07</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-0.7600364286737968</v>
+        <v>2.195941443172055e-06</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>3.676642018032375e-07</v>
+        <v>-0.06617540653250252</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>2.195941443172055e-06</v>
+        <v>0.04724128549930114</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>-0.06617540653250252</v>
+        <v>0.006607318299419287</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.04724128549930114</v>
+        <v>1.915117704763822</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.006607318299419287</v>
+        <v>3.038290800234411</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.958257144591957</v>
+        <v>6.190329393113098</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>3.038290800234411</v>
+        <v>1.370531715914136e-17</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>6.190329393113098</v>
+        <v>11139206076.87871</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>1.370531715914136e-17</v>
+        <v>1.084467761693433e-08</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>11139206076.87871</v>
+        <v>1700.581957990242</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>1.084467761693433e-08</v>
+        <v>8.939118716269977e-05</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>1700.581957990242</v>
+        <v>7.083284575997253</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>8.939118716269977e-05</v>
+        <v>1.496775873757982</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>7.083284575997253</v>
+        <v>0.00448501691659549</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.496775873757982</v>
+        <v>4.379684465777207</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.00448501691659549</v>
+        <v>0.9608702994253044</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>4.379684465777207</v>
+        <v>1.057223181949007</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9608702994253044</v>
+        <v>188</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>1.057223181949007</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>188</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>3.178061144950354</v>
       </c>
     </row>
@@ -8260,72 +8050,66 @@
         <v>9.101451589068701e-08</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0.2644252955493228</v>
+        <v>3.508244779474829e-07</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-0.8021345175398569</v>
+        <v>2.189959170157154e-06</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>3.508244779474829e-07</v>
+        <v>-0.06425163745140987</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>2.189959170157154e-06</v>
+        <v>0.04304573683108465</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>-0.06425163745140987</v>
+        <v>0.005978732351593959</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.04304573683108465</v>
+        <v>1.915486859836169</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.005978732351593959</v>
+        <v>2.954371178409494</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.955398032503265</v>
+        <v>6.256038142362597</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>2.954371178409494</v>
+        <v>1.341892828888564e-17</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>6.256038142362597</v>
+        <v>11494922278.16464</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>1.341892828888564e-17</v>
+        <v>1.050786227874914e-08</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>11494922278.16464</v>
+        <v>1773.0864477297</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>1.050786227874914e-08</v>
+        <v>8.241862385742264e-05</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>1773.0864477297</v>
+        <v>6.99580002519088</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>8.241862385742264e-05</v>
+        <v>1.810388607042141</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>6.99580002519088</v>
+        <v>0.004033667836844745</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.810388607042141</v>
+        <v>4.701734369268621</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.004033667836844745</v>
+        <v>0.9599021766884313</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>4.701734369268621</v>
+        <v>1.038947199750288</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9599021766884313</v>
+        <v>203</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>1.038947199750288</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>203</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>3.836293132196658</v>
       </c>
     </row>
@@ -8340,72 +8124,66 @@
         <v>8.982966615635258e-08</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0.2262147162963385</v>
+        <v>3.381704796540807e-07</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>-0.8179021824608692</v>
+        <v>2.184224160531677e-06</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>3.381704796540807e-07</v>
+        <v>-0.06274888138577717</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>2.184224160531677e-06</v>
+        <v>0.04047641735645957</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>-0.06274888138577717</v>
+        <v>0.005574320080760903</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.04047641735645957</v>
+        <v>1.91247598593339</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.005574320080760903</v>
+        <v>2.698044262088045</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.953900337222583</v>
+        <v>5.829654182885948</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>2.698044262088045</v>
+        <v>1.54536482144905e-17</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>5.829654182885948</v>
+        <v>9911861998.030094</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>1.54536482144905e-17</v>
+        <v>1.216217988058938e-08</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>9911861998.030094</v>
+        <v>1518.243796603276</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>1.216217988058938e-08</v>
+        <v>7.49926401077746e-05</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>1518.243796603276</v>
+        <v>8.023434240281633</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>7.49926401077746e-05</v>
+        <v>1.80045391625587</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>8.023434240281633</v>
+        <v>0.00482768847888934</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.80045391625587</v>
+        <v>5.074619008172323</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.00482768847888934</v>
+        <v>0.9589682317610947</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>5.074619008172323</v>
+        <v>1.060079732265811</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.9589682317610947</v>
+        <v>209</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>1.060079732265811</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>209</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>4.951962108171674</v>
       </c>
     </row>
@@ -8420,72 +8198,66 @@
         <v>8.892373563610737e-08</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>0.1969606762460845</v>
+        <v>3.305193947788471e-07</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>-0.8196849706475082</v>
+        <v>2.178658693074834e-06</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>3.305193947788471e-07</v>
+        <v>-0.06195144969361781</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>2.178658693074834e-06</v>
+        <v>0.03955326380274084</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>-0.06195144969361781</v>
+        <v>0.005401827989672705</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.03955326380274084</v>
+        <v>1.919147750687663</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.005401827989672705</v>
+        <v>2.870213818829476</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.959776592079959</v>
+        <v>5.466593853509455</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>2.870213818829476</v>
+        <v>1.51897413721117e-17</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>5.466593853509455</v>
+        <v>10218841613.7653</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>1.51897413721117e-17</v>
+        <v>1.182154322658652e-08</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>10218841613.7653</v>
+        <v>1586.184549308659</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>1.182154322658652e-08</v>
+        <v>7.700522399839824e-05</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>1586.184549308659</v>
+        <v>10.43208328277741</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>7.700522399839824e-05</v>
+        <v>1.601240216189308</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>10.43208328277741</v>
+        <v>0.008380352363834685</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.601240216189308</v>
+        <v>5.39152153794676</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.008380352363834685</v>
+        <v>0.9591881115353159</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>5.39152153794676</v>
+        <v>1.058864941750615</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.9591881115353159</v>
+        <v>211</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>1.058864941750615</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>211</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>6.166925835328684</v>
       </c>
     </row>
@@ -8500,72 +8272,66 @@
         <v>8.817072684168674e-08</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>0.1708083792300633</v>
+        <v>3.268043870124077e-07</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>-0.8177725760141139</v>
+        <v>2.173184551327404e-06</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>3.268043870124077e-07</v>
+        <v>-0.06177662993097647</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>2.173184551327404e-06</v>
+        <v>0.039552198741253</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>-0.06177662993097647</v>
+        <v>0.005380463401861202</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>0.039552198741253</v>
+        <v>1.920500155027023</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>0.005380463401861202</v>
+        <v>3.085597870280143</v>
       </c>
       <c r="K38" s="2" t="n">
-        <v>1.961704656423109</v>
+        <v>5.60630322672457</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>3.085597870280143</v>
+        <v>1.444211602048155e-17</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>5.60630322672457</v>
+        <v>10534756259.04852</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>1.444211602048155e-17</v>
+        <v>1.144193818959213e-08</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>10534756259.04852</v>
+        <v>1602.80176973671</v>
       </c>
       <c r="P38" s="2" t="n">
-        <v>1.144193818959213e-08</v>
+        <v>7.676752631054405e-05</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>1602.80176973671</v>
+        <v>9.432481318398565</v>
       </c>
       <c r="R38" s="2" t="n">
-        <v>7.676752631054405e-05</v>
+        <v>1.687186798319421</v>
       </c>
       <c r="S38" s="2" t="n">
-        <v>9.432481318398565</v>
+        <v>0.006830137614044553</v>
       </c>
       <c r="T38" s="2" t="n">
-        <v>1.687186798319421</v>
+        <v>5.263107724566089</v>
       </c>
       <c r="U38" s="2" t="n">
-        <v>0.006830137614044553</v>
+        <v>0.9589262573632805</v>
       </c>
       <c r="V38" s="2" t="n">
-        <v>5.263107724566089</v>
+        <v>1.02163314228837</v>
       </c>
       <c r="W38" s="2" t="n">
-        <v>0.9589262573632805</v>
+        <v>235</v>
       </c>
       <c r="X38" s="2" t="n">
-        <v>1.02163314228837</v>
-      </c>
-      <c r="Y38" s="2" t="n">
-        <v>235</v>
-      </c>
-      <c r="Z38" s="2" t="n">
         <v>5.547709840697861</v>
       </c>
     </row>
@@ -8580,72 +8346,66 @@
         <v>8.749470805046445e-08</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>0.1447003957748283</v>
+        <v>3.242072133198219e-07</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>-0.8178444375168308</v>
+        <v>2.167759817432227e-06</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>3.242072133198219e-07</v>
+        <v>-0.06175866831323448</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>2.167759817432227e-06</v>
+        <v>0.03971680502229619</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>-0.06175866831323448</v>
+        <v>0.005391376254585098</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>0.03971680502229619</v>
+        <v>1.915384692351748</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>0.005391376254585098</v>
+        <v>3.214309618428283</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>1.957389136296075</v>
+        <v>6.085057247689505</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>3.214309618428283</v>
+        <v>1.225898913300088e-17</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>6.085057247689505</v>
+        <v>11977306758.47915</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>1.225898913300088e-17</v>
+        <v>1.002241184619365e-08</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>11977306758.47915</v>
+        <v>1758.624039496989</v>
       </c>
       <c r="P39" s="2" t="n">
-        <v>1.002241184619365e-08</v>
+        <v>8.82363551080519e-05</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>1758.624039496989</v>
+        <v>8.458292547660273</v>
       </c>
       <c r="R39" s="2" t="n">
-        <v>8.82363551080519e-05</v>
+        <v>1.488984338722581</v>
       </c>
       <c r="S39" s="2" t="n">
-        <v>8.458292547660273</v>
+        <v>0.00631266821393819</v>
       </c>
       <c r="T39" s="2" t="n">
-        <v>1.488984338722581</v>
+        <v>4.746864997746736</v>
       </c>
       <c r="U39" s="2" t="n">
-        <v>0.00631266821393819</v>
+        <v>0.9587008298556809</v>
       </c>
       <c r="V39" s="2" t="n">
-        <v>4.746864997746736</v>
+        <v>1.027678261552764</v>
       </c>
       <c r="W39" s="2" t="n">
-        <v>0.9587008298556809</v>
+        <v>239</v>
       </c>
       <c r="X39" s="2" t="n">
-        <v>1.027678261552764</v>
-      </c>
-      <c r="Y39" s="2" t="n">
-        <v>239</v>
-      </c>
-      <c r="Z39" s="2" t="n">
         <v>4.440534091568896</v>
       </c>
     </row>
@@ -8660,72 +8420,66 @@
         <v>8.686526757757514e-08</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>0.118147873887329</v>
+        <v>3.220333138559222e-07</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>-0.821994725551646</v>
+        <v>2.162375238508446e-06</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>3.220333138559222e-07</v>
+        <v>-0.06178805698876867</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>2.162375238508446e-06</v>
+        <v>0.03994772210430093</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>-0.06178805698876867</v>
+        <v>0.00541354750008506</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>0.03994772210430093</v>
+        <v>1.914088774567616</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>0.00541354750008506</v>
+        <v>2.994108969704512</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>1.953851011191846</v>
+        <v>5.922609943399408</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>2.994108969704512</v>
+        <v>1.294069895051292e-17</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>5.922609943399408</v>
+        <v>11387563990.00137</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>1.294069895051292e-17</v>
+        <v>1.055310768866167e-08</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>11387563990.00137</v>
+        <v>1678.106017860911</v>
       </c>
       <c r="P40" s="2" t="n">
-        <v>1.055310768866167e-08</v>
+        <v>9.568429161608417e-05</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>1678.106017860911</v>
+        <v>7.977622752829252</v>
       </c>
       <c r="R40" s="2" t="n">
-        <v>9.568429161608417e-05</v>
+        <v>1.476954618257298</v>
       </c>
       <c r="S40" s="2" t="n">
-        <v>7.977622752829252</v>
+        <v>0.006089584159793908</v>
       </c>
       <c r="T40" s="2" t="n">
-        <v>1.476954618257298</v>
+        <v>4.439619250244291</v>
       </c>
       <c r="U40" s="2" t="n">
-        <v>0.006089584159793908</v>
+        <v>0.9595653069860637</v>
       </c>
       <c r="V40" s="2" t="n">
-        <v>4.439619250244291</v>
+        <v>0.9894167413042139</v>
       </c>
       <c r="W40" s="2" t="n">
-        <v>0.9595653069860637</v>
+        <v>218</v>
       </c>
       <c r="X40" s="2" t="n">
-        <v>0.9894167413042139</v>
-      </c>
-      <c r="Y40" s="2" t="n">
-        <v>218</v>
-      </c>
-      <c r="Z40" s="2" t="n">
         <v>3.524565758656236</v>
       </c>
     </row>
@@ -8740,72 +8494,66 @@
         <v>8.624539384773594e-08</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>0.09075342538298725</v>
+        <v>3.1977143929162e-07</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>-0.8328252120190731</v>
+        <v>2.157025701220142e-06</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>3.1977143929162e-07</v>
+        <v>-0.06179463558352049</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>2.157025701220142e-06</v>
+        <v>0.0402428436364354</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>-0.06179463558352049</v>
+        <v>0.005438060666869475</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>0.0402428436364354</v>
+        <v>1.915344020141512</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>0.005438060666869475</v>
+        <v>2.82814383075842</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>1.955325587966388</v>
+        <v>5.727790562389785</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>2.82814383075842</v>
+        <v>1.479388523544322e-17</v>
       </c>
       <c r="M41" s="2" t="n">
-        <v>5.727790562389785</v>
+        <v>9991539285.291983</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>1.479388523544322e-17</v>
+        <v>1.202224802494318e-08</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>9991539285.291983</v>
+        <v>1476.886245697262</v>
       </c>
       <c r="P41" s="2" t="n">
-        <v>1.202224802494318e-08</v>
+        <v>9.54911124870835e-05</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>1476.886245697262</v>
+        <v>7.224798438144889</v>
       </c>
       <c r="R41" s="2" t="n">
-        <v>9.54911124870835e-05</v>
+        <v>1.392394555954392</v>
       </c>
       <c r="S41" s="2" t="n">
-        <v>7.224798438144889</v>
+        <v>0.004984417633215084</v>
       </c>
       <c r="T41" s="2" t="n">
-        <v>1.392394555954392</v>
+        <v>4.363968585382498</v>
       </c>
       <c r="U41" s="2" t="n">
-        <v>0.004984417633215084</v>
+        <v>0.9605201184441924</v>
       </c>
       <c r="V41" s="2" t="n">
-        <v>4.363968585382498</v>
+        <v>1.009669526583702</v>
       </c>
       <c r="W41" s="2" t="n">
-        <v>0.9605201184441924</v>
+        <v>218</v>
       </c>
       <c r="X41" s="2" t="n">
-        <v>1.009669526583702</v>
-      </c>
-      <c r="Y41" s="2" t="n">
-        <v>218</v>
-      </c>
-      <c r="Z41" s="2" t="n">
         <v>3.107495467916213</v>
       </c>
     </row>
@@ -8820,72 +8568,66 @@
         <v>8.561433249384657e-08</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>0.06326560895457112</v>
+        <v>3.165408492247091e-07</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>-0.8516156435567233</v>
+        <v>2.151721632423167e-06</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>3.165408492247091e-07</v>
+        <v>-0.06162067496817189</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>2.151721632423167e-06</v>
+        <v>0.04060442746256689</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>-0.06162067496817189</v>
+        <v>0.005445856622434677</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>0.04060442746256689</v>
+        <v>1.914141485332688</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>0.005445856622434677</v>
+        <v>3.179672861058042</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>1.954289066936033</v>
+        <v>6.214185499965085</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>3.179672861058042</v>
+        <v>1.85880192871286e-17</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>6.214185499965085</v>
+        <v>8261806515.264954</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>1.85880192871286e-17</v>
+        <v>1.456800809170607e-08</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>8261806515.264954</v>
+        <v>1268.770739386952</v>
       </c>
       <c r="P42" s="2" t="n">
-        <v>1.456800809170607e-08</v>
+        <v>0.0001007967672510521</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>1268.770739386952</v>
+        <v>7.809375365538838</v>
       </c>
       <c r="R42" s="2" t="n">
-        <v>0.0001007967672510521</v>
+        <v>1.379096273025224</v>
       </c>
       <c r="S42" s="2" t="n">
-        <v>7.809375365538838</v>
+        <v>0.006147226281330282</v>
       </c>
       <c r="T42" s="2" t="n">
-        <v>1.379096273025224</v>
+        <v>4.338747420530228</v>
       </c>
       <c r="U42" s="2" t="n">
-        <v>0.006147226281330282</v>
+        <v>0.9602522923480179</v>
       </c>
       <c r="V42" s="2" t="n">
-        <v>4.338747420530228</v>
+        <v>0.9850661304782495</v>
       </c>
       <c r="W42" s="2" t="n">
-        <v>0.9602522923480179</v>
+        <v>182</v>
       </c>
       <c r="X42" s="2" t="n">
-        <v>0.9850661304782495</v>
-      </c>
-      <c r="Y42" s="2" t="n">
-        <v>182</v>
-      </c>
-      <c r="Z42" s="2" t="n">
         <v>3.035537314315178</v>
       </c>
     </row>
@@ -8900,72 +8642,66 @@
         <v>8.495347290900513e-08</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>0.03696175993282939</v>
+        <v>3.120894161532021e-07</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>-0.8790190985443318</v>
+        <v>2.146481196601896e-06</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>3.120894161532021e-07</v>
+        <v>-0.06122597337501348</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>2.146481196601896e-06</v>
+        <v>0.04110833996954143</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>-0.06122597337501348</v>
+        <v>0.005438568945059819</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>0.04110833996954143</v>
+        <v>1.915533269764399</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>0.005438568945059819</v>
+        <v>3.040123254989479</v>
       </c>
       <c r="K43" s="2" t="n">
-        <v>1.952133949534001</v>
+        <v>5.59189794914285</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>3.040123254989479</v>
+        <v>2.472328991188736e-17</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>5.59189794914285</v>
+        <v>6197391521.153851</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>2.472328991188736e-17</v>
+        <v>1.941258337749195e-08</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>6197391521.153851</v>
+        <v>949.5637542178115</v>
       </c>
       <c r="P43" s="2" t="n">
-        <v>1.941258337749195e-08</v>
+        <v>0.0001099511084104124</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>949.5637542178115</v>
+        <v>10.18421272102415</v>
       </c>
       <c r="R43" s="2" t="n">
-        <v>0.0001099511084104124</v>
+        <v>1.21984317625697</v>
       </c>
       <c r="S43" s="2" t="n">
-        <v>10.18421272102415</v>
+        <v>0.01140392981506073</v>
       </c>
       <c r="T43" s="2" t="n">
-        <v>1.21984317625697</v>
+        <v>4.272125599335639</v>
       </c>
       <c r="U43" s="2" t="n">
-        <v>0.01140392981506073</v>
+        <v>0.9631891956445076</v>
       </c>
       <c r="V43" s="2" t="n">
-        <v>4.272125599335639</v>
+        <v>0.9617071321724026</v>
       </c>
       <c r="W43" s="2" t="n">
-        <v>0.9631891956445076</v>
+        <v>144</v>
       </c>
       <c r="X43" s="2" t="n">
-        <v>0.9617071321724026</v>
-      </c>
-      <c r="Y43" s="2" t="n">
-        <v>144</v>
-      </c>
-      <c r="Z43" s="2" t="n">
         <v>3.259680386673008</v>
       </c>
     </row>
@@ -9342,7 +9078,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.475428503637168</v>
+        <v>1.510229680519046</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.887754006228568</v>
@@ -9431,7 +9167,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.472821813847621</v>
+        <v>1.503709724968051</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.839908244498993</v>
@@ -9520,7 +9256,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.48440878004214</v>
+        <v>1.514065878478357</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.848650352564414</v>
@@ -9609,7 +9345,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.496151075168476</v>
+        <v>1.526749158239292</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.833582488110291</v>
@@ -9698,7 +9434,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.501779470335789</v>
+        <v>1.531900283762181</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.814985377140151</v>
@@ -9787,7 +9523,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.510412566941354</v>
+        <v>1.538570538488236</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.838020525382409</v>
@@ -9876,7 +9612,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.517323052867183</v>
+        <v>1.547014834376816</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.811046328414301</v>
@@ -9965,7 +9701,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.516017521541671</v>
+        <v>1.546611353610638</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.802747459703498</v>
@@ -10054,7 +9790,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.515260739084892</v>
+        <v>1.543859939449862</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.81789457701329</v>
@@ -10143,7 +9879,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.625013314162022</v>
+        <v>1.634893738251676</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.869143183308402</v>
@@ -10232,7 +9968,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.669678081440656</v>
+        <v>1.673930578818575</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.442491519576411</v>
@@ -10321,7 +10057,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.662312060937721</v>
+        <v>1.659514567412018</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.452256903863575</v>
@@ -10410,7 +10146,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.664672225683243</v>
+        <v>1.66062482225444</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.188706217679103</v>
@@ -10499,7 +10235,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.686747801004921</v>
+        <v>1.673840106068051</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.205635777123431</v>
@@ -10588,7 +10324,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.710525115536464</v>
+        <v>1.693265909892622</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.053051164819579</v>
@@ -10677,7 +10413,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.772403674383629</v>
+        <v>1.742543109017548</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.619784516694777</v>
@@ -10766,7 +10502,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.75906737169547</v>
+        <v>1.735769615656405</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.553764234070751</v>
@@ -10855,7 +10591,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.761298698635515</v>
+        <v>1.733657784624166</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.085400590760451</v>
@@ -10944,7 +10680,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.758439391194949</v>
+        <v>1.732097709559386</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.508305143826456</v>
@@ -11033,7 +10769,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.751266275397</v>
+        <v>1.730373622730259</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.465280003943433</v>
@@ -11122,7 +10858,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.75204407496464</v>
+        <v>1.737232239247645</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.4647188020759</v>
@@ -11211,7 +10947,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.736702713262113</v>
+        <v>1.727624843695442</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.50107701387521</v>
@@ -11300,7 +11036,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.734391846866102</v>
+        <v>1.722498108453392</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.089378997313968</v>
@@ -11389,7 +11125,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.74794582896002</v>
+        <v>1.732760163697533</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.147095130188286</v>
@@ -11478,7 +11214,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.739776461298511</v>
+        <v>1.726334194084441</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.178645694719054</v>
@@ -11567,7 +11303,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.725390994885018</v>
+        <v>1.710746206261205</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.438720046698335</v>
@@ -11656,7 +11392,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.721792798219523</v>
+        <v>1.703098316749722</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.026245722501691</v>
@@ -11745,7 +11481,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.706690869380311</v>
+        <v>1.692111311968233</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.888789804062727</v>
@@ -11834,7 +11570,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.671785566875278</v>
+        <v>1.662634017796197</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.718068423289932</v>
@@ -11923,7 +11659,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.656760078708982</v>
+        <v>1.645537526044621</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.906285236920791</v>
@@ -12012,7 +11748,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.662056890156291</v>
+        <v>1.645613140708371</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.776504475784406</v>
@@ -12101,7 +11837,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.656208132479988</v>
+        <v>1.635975303976306</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.897694359359248</v>
@@ -12190,7 +11926,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.644904588096671</v>
+        <v>1.617684813255333</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.714538909240428</v>
@@ -12279,7 +12015,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.634161083631265</v>
+        <v>1.604419204915422</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.611338697722979</v>
@@ -12368,7 +12104,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.626425400324693</v>
+        <v>1.593959167074261</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.797870242777801</v>
@@ -12457,7 +12193,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.615962665299143</v>
+        <v>1.583110384414216</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.728826149368393</v>
@@ -12546,7 +12282,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.603902189468424</v>
+        <v>1.56894883489383</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.68058162187883</v>
@@ -12635,7 +12371,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.558950524064816</v>
+        <v>1.530780229384525</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.399286511734955</v>
@@ -12724,7 +12460,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.488310801890905</v>
+        <v>1.470318742588804</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.084034747896813</v>
@@ -12813,7 +12549,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.481125952432982</v>
+        <v>1.462659231885063</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.029633019300359</v>
@@ -12902,7 +12638,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.477981578776557</v>
+        <v>1.457402432519402</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.066049490689829</v>
@@ -12991,7 +12727,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.480191296484087</v>
+        <v>1.462507197046269</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.059732445008924</v>
@@ -13080,7 +12816,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.495364573047461</v>
+        <v>1.475572322870246</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.061524025298681</v>
@@ -13169,7 +12905,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.507969641881828</v>
+        <v>1.490325552235956</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.027838789383742</v>
@@ -13258,7 +12994,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.517167897595263</v>
+        <v>1.502954064110366</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.069457888966357</v>
@@ -13347,7 +13083,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.518765374168904</v>
+        <v>1.50607815884146</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.01728888199644</v>
@@ -13436,7 +13172,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.520977593348425</v>
+        <v>1.504111626557566</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.057841048500547</v>
@@ -13525,7 +13261,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.528422899201467</v>
+        <v>1.513682766571228</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.057221324698283</v>
@@ -13614,7 +13350,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.529466599035874</v>
+        <v>1.515895206131015</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.046180666568738</v>
@@ -13703,7 +13439,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.531978814560563</v>
+        <v>1.521329740181901</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.040574302189627</v>
@@ -13792,7 +13528,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.524096254688772</v>
+        <v>1.517655209275584</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.052336632443757</v>
@@ -13881,7 +13617,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.532365417318551</v>
+        <v>1.526059063097369</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.030123091682569</v>
@@ -13970,7 +13706,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.576152671590283</v>
+        <v>1.560440733208006</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.042915039051437</v>
@@ -14059,7 +13795,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.679236787301128</v>
+        <v>1.646702980239105</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.198112763745121</v>
@@ -14148,7 +13884,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.684866095701842</v>
+        <v>1.653942486364447</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.109804714172099</v>
@@ -14237,7 +13973,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.685748643598445</v>
+        <v>1.650777561796692</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.410789167043694</v>
@@ -14326,7 +14062,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.688353126425415</v>
+        <v>1.651677814506692</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.098036112524058</v>
@@ -14415,7 +14151,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.683449913772129</v>
+        <v>1.641471012284</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.330657307032147</v>
@@ -14504,7 +14240,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.679557326705881</v>
+        <v>1.635890323827649</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.393408096438252</v>
@@ -14593,7 +14329,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.681511277694574</v>
+        <v>1.636377287934967</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.729134367188625</v>
@@ -14682,7 +14418,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.679877238863843</v>
+        <v>1.64054594554734</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.71329873970397</v>
@@ -14771,7 +14507,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.683967401632596</v>
+        <v>1.641177749755372</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.430538145225269</v>
@@ -14860,7 +14596,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.687379546190114</v>
+        <v>1.648499366454546</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.326455780909046</v>
@@ -14949,7 +14685,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.693443766846409</v>
+        <v>1.652828024409105</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.216781901120289</v>
@@ -15038,7 +14774,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.685114227961972</v>
+        <v>1.640467863713846</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.4347621037072</v>
@@ -15127,7 +14863,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.688755501815352</v>
+        <v>1.633250048547914</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.515001595483829</v>
@@ -15216,7 +14952,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.690945898854731</v>
+        <v>1.632290527746797</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.923580366404265</v>
@@ -15305,7 +15041,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.686160981163121</v>
+        <v>1.629890865795369</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.321979463032964</v>
@@ -15394,7 +15130,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.675205969750168</v>
+        <v>1.617318927362632</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.449709680484971</v>
@@ -15483,7 +15219,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.672219761913653</v>
+        <v>1.617154324056743</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.213591667087853</v>
@@ -15572,7 +15308,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.663407189783738</v>
+        <v>1.612548580463327</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.202248855238197</v>
@@ -15661,7 +15397,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.670264932059046</v>
+        <v>1.620564834501929</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.162879337704796</v>
@@ -15750,7 +15486,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.666219236549027</v>
+        <v>1.622365348723797</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.231352483758699</v>
@@ -15839,7 +15575,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.662454003394953</v>
+        <v>1.617121022228305</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.446017715986477</v>
@@ -15928,7 +15664,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.652838506509372</v>
+        <v>1.605476609945797</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.246943771546377</v>
@@ -16017,7 +15753,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.646800026908119</v>
+        <v>1.597603407184442</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.076384736717229</v>
@@ -16106,7 +15842,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.63789527675395</v>
+        <v>1.602731833695122</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.394100817205364</v>
@@ -16195,7 +15931,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.613953355105152</v>
+        <v>1.579621309851405</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.215535533910424</v>
@@ -16284,7 +16020,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.601665962226299</v>
+        <v>1.563934259273665</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.120170185197903</v>
@@ -16373,7 +16109,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.612039963494029</v>
+        <v>1.572803971955788</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.210689834131146</v>
@@ -16462,7 +16198,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.608460183528763</v>
+        <v>1.572041337873134</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.233192204273087</v>
@@ -16551,7 +16287,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.604055290928162</v>
+        <v>1.566794608502307</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>3.44933803207137</v>
@@ -16640,7 +16376,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.602942500665902</v>
+        <v>1.570743600106638</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>3.365028179074904</v>
@@ -16729,7 +16465,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.602189406311986</v>
+        <v>1.569948768053445</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>3.067195854829215</v>
@@ -16818,7 +16554,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.608961278557149</v>
+        <v>1.569762754048768</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>3.198009293323515</v>
@@ -16907,7 +16643,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.618205170178632</v>
+        <v>1.582041111510149</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.920398537505541</v>
@@ -16996,7 +16732,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.615387546541136</v>
+        <v>1.578935819683408</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>3.511215219852025</v>
@@ -17282,7 +17018,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.490039884747836</v>
+        <v>1.490615653859118</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.139858914397611</v>
@@ -17371,7 +17107,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.481412220355462</v>
+        <v>1.480751921819167</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.104797611417494</v>
@@ -17460,7 +17196,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.531894654999873</v>
+        <v>1.533314671978065</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.5739411067939</v>
@@ -17549,7 +17285,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.542226261674155</v>
+        <v>1.537545476727167</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.652238385813537</v>
@@ -17638,7 +17374,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.560512089636542</v>
+        <v>1.548265626785103</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.445558562987551</v>
@@ -17727,7 +17463,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.57250213125113</v>
+        <v>1.553280747526748</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.552303918558856</v>
@@ -17816,7 +17552,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.564629689647151</v>
+        <v>1.545480047468132</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.621301656771998</v>
@@ -17905,7 +17641,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.556528369843825</v>
+        <v>1.539902906375728</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.672473236250408</v>
@@ -17994,7 +17730,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.554132697323638</v>
+        <v>1.535285557862774</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.454112376227445</v>
@@ -18083,7 +17819,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.558773014765441</v>
+        <v>1.540304185085024</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.599726688662984</v>
@@ -18172,7 +17908,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.607736876389025</v>
+        <v>1.583056835860861</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.542440715314954</v>
@@ -18261,7 +17997,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.604117682502178</v>
+        <v>1.577827100479795</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.842366972921599</v>
@@ -18350,7 +18086,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.448627392692114</v>
+        <v>1.43954388373222</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.733128340653409</v>
@@ -18439,7 +18175,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.433987096370652</v>
+        <v>1.422017223590216</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.707605452654281</v>
@@ -18528,7 +18264,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.428015975984209</v>
+        <v>1.411440295363474</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.70282956705488</v>
@@ -18617,7 +18353,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.415222767245556</v>
+        <v>1.399926968484754</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.708518773321173</v>
@@ -18706,7 +18442,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.405525589969761</v>
+        <v>1.394565615034228</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.704138740414105</v>
@@ -18795,7 +18531,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.40302017308835</v>
+        <v>1.393591871609586</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.718727938664727</v>
@@ -18884,7 +18620,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.413958389675247</v>
+        <v>1.409303438109589</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.724487917627664</v>
@@ -18973,7 +18709,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.404618858570962</v>
+        <v>1.404902480129746</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.733334284872331</v>
@@ -19062,7 +18798,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.416052267788667</v>
+        <v>1.418434330838992</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.711540574508654</v>
@@ -19151,7 +18887,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.420392236077912</v>
+        <v>1.426665291331731</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.744834729556436</v>
@@ -19240,7 +18976,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.431775587951221</v>
+        <v>1.440852850995661</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.75364297392529</v>
@@ -19329,7 +19065,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.441196466161819</v>
+        <v>1.451323884373015</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.76991268060428</v>
@@ -19418,7 +19154,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.449076852826687</v>
+        <v>1.46512682182566</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.784575660845048</v>
@@ -19507,7 +19243,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.449061267504851</v>
+        <v>1.465635844738591</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.80283954562308</v>
@@ -19596,7 +19332,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.46686702690981</v>
+        <v>1.481768318371224</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.735802322183588</v>
@@ -19685,7 +19421,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.595358928013049</v>
+        <v>1.602610178592855</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.246117177421377</v>
@@ -19774,7 +19510,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.588987065943295</v>
+        <v>1.59600076603372</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.440506114983743</v>
@@ -19863,7 +19599,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.591532971372958</v>
+        <v>1.599088215725988</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.512192537376383</v>
@@ -19952,7 +19688,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.601311112505457</v>
+        <v>1.60904423117023</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.467194629692633</v>
@@ -20041,7 +19777,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.613005060661731</v>
+        <v>1.617948255128572</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.445363844561876</v>
@@ -20130,7 +19866,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.608859849699201</v>
+        <v>1.612233311924942</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.455773723893192</v>
@@ -20219,7 +19955,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.590916961594006</v>
+        <v>1.595861598432529</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.382838367618909</v>
@@ -20308,7 +20044,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.612782868420376</v>
+        <v>1.611723845496398</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.901610521580392</v>
@@ -20397,7 +20133,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.590632427253046</v>
+        <v>1.593390530351141</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.049073408213518</v>
@@ -20486,7 +20222,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.584509525632733</v>
+        <v>1.580698558171848</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.911689951285556</v>
@@ -20575,7 +20311,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.576949539549311</v>
+        <v>1.569638715272222</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.941185430791811</v>
@@ -20664,7 +20400,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.563525445353222</v>
+        <v>1.557460461320984</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.77949334206484</v>
@@ -20753,7 +20489,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.545421930480343</v>
+        <v>1.531172767807372</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.91858465343946</v>
@@ -20842,7 +20578,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.547367445451215</v>
+        <v>1.529298068179617</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.665214377653201</v>
@@ -20931,7 +20667,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.539044272286858</v>
+        <v>1.526728828179138</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.495258377749071</v>
@@ -21020,7 +20756,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.542668949544634</v>
+        <v>1.530984915947213</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.817213789494159</v>
@@ -21109,7 +20845,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.55589823700918</v>
+        <v>1.541414303843746</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.522277242965704</v>
@@ -21198,7 +20934,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.527156169604047</v>
+        <v>1.520304881423862</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.595849393191359</v>
@@ -21287,7 +21023,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.537365205646349</v>
+        <v>1.527033327023805</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.547081333720223</v>
@@ -21376,7 +21112,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.531703143224801</v>
+        <v>1.521193008691552</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.66047627977391</v>
@@ -21465,7 +21201,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.533405092871356</v>
+        <v>1.518222059375698</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.634360718720468</v>
@@ -21554,7 +21290,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.524129048641554</v>
+        <v>1.51073740730008</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.66037562819903</v>
@@ -21643,7 +21379,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.534548929566955</v>
+        <v>1.520281276616858</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.377605902903139</v>
@@ -21732,7 +21468,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.552374099575376</v>
+        <v>1.532425778448969</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.416035277115902</v>
@@ -21821,7 +21557,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.553205093799347</v>
+        <v>1.534152135633063</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.54414852958011</v>
@@ -21910,7 +21646,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.544239022903731</v>
+        <v>1.525118760451632</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.396197248289714</v>
@@ -21999,7 +21735,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.531886337119584</v>
+        <v>1.515422396926662</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.53624938934321</v>
@@ -22088,7 +21824,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.532613856288543</v>
+        <v>1.522050486577348</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.473858692958337</v>
@@ -22177,7 +21913,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.538365532459266</v>
+        <v>1.529128045517417</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.608187734155714</v>
@@ -22266,7 +22002,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.534986999036811</v>
+        <v>1.521001641801933</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.708896983749811</v>
@@ -22355,7 +22091,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.54056889344953</v>
+        <v>1.521401114439844</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.651444468385684</v>
@@ -22444,7 +22180,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.557721292256877</v>
+        <v>1.535843412210656</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.315477674086254</v>
@@ -22533,7 +22269,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.570084335171856</v>
+        <v>1.545932911101184</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.814505987925632</v>
@@ -22622,7 +22358,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.566837888874448</v>
+        <v>1.549174926752701</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.825483690460352</v>
@@ -22711,7 +22447,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.568151771776798</v>
+        <v>1.547887311781175</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.967815576958947</v>
@@ -22800,7 +22536,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.565535261460383</v>
+        <v>1.552107149198883</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.779458401106209</v>
@@ -22889,7 +22625,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.59762743666878</v>
+        <v>1.582011497731603</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.743606062587808</v>
@@ -22978,7 +22714,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.592446515368649</v>
+        <v>1.57494388696492</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.743968754446803</v>
@@ -23067,7 +22803,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.587309851295837</v>
+        <v>1.570976246101874</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.980386807863772</v>
@@ -23156,7 +22892,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.580631894294155</v>
+        <v>1.558581395100431</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.888367345827492</v>
@@ -23245,7 +22981,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.586369344544923</v>
+        <v>1.566740756074821</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.861461523567626</v>
@@ -23334,7 +23070,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.588716016066347</v>
+        <v>1.568937999222599</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.909473156535384</v>
@@ -23423,7 +23159,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.586975940759855</v>
+        <v>1.567434248061897</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.038058549257153</v>
@@ -23512,7 +23248,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.573338576478976</v>
+        <v>1.554474906899211</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.094733398416971</v>
@@ -23601,7 +23337,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.582570527804449</v>
+        <v>1.565871870457363</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.987318528743565</v>
@@ -23690,7 +23426,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.588119557993224</v>
+        <v>1.572056763137742</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.056397211099663</v>
@@ -23779,7 +23515,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.587740734828573</v>
+        <v>1.567134119646383</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.328699141119666</v>
@@ -23868,7 +23604,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.584908321976575</v>
+        <v>1.564630472597381</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.238745196237747</v>
@@ -23957,7 +23693,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.583270655519623</v>
+        <v>1.559043319653362</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.833056310365361</v>
@@ -24046,7 +23782,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.586261112368935</v>
+        <v>1.564218014301014</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.923727543176029</v>
@@ -24135,7 +23871,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.566311155496868</v>
+        <v>1.548747398061308</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.33657193960534</v>
@@ -24224,7 +23960,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.557933983267299</v>
+        <v>1.537410806749117</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.314639312022088</v>
@@ -24313,7 +24049,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.559315443174342</v>
+        <v>1.539875910019008</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.300990471647222</v>
@@ -24402,7 +24138,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.558670494233934</v>
+        <v>1.541692112585886</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.07371895866268</v>
@@ -24491,7 +24227,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.561833135443753</v>
+        <v>1.547134615863341</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>3.29314304146279</v>
@@ -24580,7 +24316,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.563278708338878</v>
+        <v>1.550011216213912</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>3.041412682307496</v>
@@ -24669,7 +24405,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.582679159561009</v>
+        <v>1.562648160977487</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.846573402738348</v>
@@ -24758,7 +24494,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.594372382180935</v>
+        <v>1.569184068364937</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.882188173980614</v>
@@ -24847,7 +24583,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.601093667790515</v>
+        <v>1.572699311224984</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>3.067490644882079</v>
@@ -24936,7 +24672,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.599572447858909</v>
+        <v>1.571332418730333</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>3.040756795539126</v>
@@ -25222,7 +24958,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.498752734137458</v>
+        <v>1.52023053371261</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.799115661441443</v>
@@ -25311,7 +25047,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.492707358561304</v>
+        <v>1.512631209250082</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.805694644089632</v>
@@ -25400,7 +25136,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.587650599949302</v>
+        <v>1.605979560115465</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.872313308939547</v>
@@ -25489,7 +25225,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.624109286879033</v>
+        <v>1.644332916147933</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.533624371568556</v>
@@ -25578,7 +25314,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.62426746090504</v>
+        <v>1.647442639341961</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.383459903484498</v>
@@ -25667,7 +25403,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.627508909632383</v>
+        <v>1.650212080547811</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.463581933941073</v>
@@ -25756,7 +25492,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.635014968532317</v>
+        <v>1.658560811204158</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.441999604119112</v>
@@ -25845,7 +25581,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.63387556752952</v>
+        <v>1.653662334017205</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.479528033650957</v>
@@ -25934,7 +25670,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.631408628369243</v>
+        <v>1.654170341176027</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.459869050816152</v>
@@ -26023,7 +25759,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.64022838377655</v>
+        <v>1.659280294490065</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.248464001295428</v>
@@ -26112,7 +25848,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.648215716519007</v>
+        <v>1.650021250627993</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.355211820628132</v>
@@ -26201,7 +25937,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.67097850410855</v>
+        <v>1.662419092030591</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.054632198214838</v>
@@ -26290,7 +26026,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.638132305189053</v>
+        <v>1.624565474722642</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.754961688388522</v>
@@ -26379,7 +26115,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.646506573707858</v>
+        <v>1.623223119835021</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.827913714168077</v>
@@ -26468,7 +26204,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.637348693355125</v>
+        <v>1.614936635172869</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.024011507799611</v>
@@ -26557,7 +26293,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.610395843098737</v>
+        <v>1.597204219141706</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.638445620190646</v>
@@ -26646,7 +26382,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.607431037286787</v>
+        <v>1.590502584752522</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.636557411594334</v>
@@ -26735,7 +26471,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.607913030128521</v>
+        <v>1.5918185211264</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.787582646722013</v>
@@ -26824,7 +26560,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.602989362667221</v>
+        <v>1.585964488672817</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.820062059639232</v>
@@ -26913,7 +26649,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.613515629201315</v>
+        <v>1.597445065813797</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.868707640718021</v>
@@ -27002,7 +26738,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.608790966825232</v>
+        <v>1.600036985692615</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.855595844936051</v>
@@ -27091,7 +26827,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.586517590794129</v>
+        <v>1.581635186151351</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.767667286575124</v>
@@ -27180,7 +26916,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.597632693077231</v>
+        <v>1.59201093715271</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.441272841372351</v>
@@ -27269,7 +27005,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.612235459527556</v>
+        <v>1.601499889873989</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.852894574922136</v>
@@ -27358,7 +27094,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.618454595874958</v>
+        <v>1.607186484200901</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.929121914349563</v>
@@ -27447,7 +27183,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.624637544742896</v>
+        <v>1.617959528637212</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.851939347012743</v>
@@ -27536,7 +27272,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.62010866194023</v>
+        <v>1.612575652422255</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.867405836840696</v>
@@ -27625,7 +27361,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.641778975778192</v>
+        <v>1.635529203326584</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.974559730985152</v>
@@ -27714,7 +27450,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.647712222283864</v>
+        <v>1.640307335416745</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.917171058155092</v>
@@ -27803,7 +27539,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.647219076753012</v>
+        <v>1.639812205361426</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.107224530656428</v>
@@ -27892,7 +27628,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.66266685014376</v>
+        <v>1.651201480610354</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.191807542184977</v>
@@ -27981,7 +27717,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.651575857830559</v>
+        <v>1.640962426693875</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.208841547191684</v>
@@ -28070,7 +27806,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.650300979105918</v>
+        <v>1.638372720930019</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.925012112995987</v>
@@ -28159,7 +27895,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.64681218481458</v>
+        <v>1.638105580824903</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.070250353568501</v>
@@ -28248,7 +27984,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.642571208310286</v>
+        <v>1.631771549507384</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.739879337100733</v>
@@ -28337,7 +28073,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.636803106096626</v>
+        <v>1.624272219502049</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.061305544547401</v>
@@ -28426,7 +28162,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.651280970703835</v>
+        <v>1.632907838246369</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.075222713285374</v>
@@ -28515,7 +28251,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.645743160082059</v>
+        <v>1.627709608248232</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.759788164085104</v>
@@ -28604,7 +28340,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.642820461236872</v>
+        <v>1.625372189986055</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.943608510327253</v>
@@ -28693,7 +28429,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.640287348588371</v>
+        <v>1.619628468514707</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.750375073197187</v>
@@ -28782,7 +28518,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.628843620364292</v>
+        <v>1.59788138670015</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.150980761643229</v>
@@ -28871,7 +28607,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.630030823666466</v>
+        <v>1.601762163525308</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.939655427554176</v>
@@ -28960,7 +28696,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.628486298758895</v>
+        <v>1.595377478361734</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.884325713483307</v>
@@ -29049,7 +28785,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.618015956831321</v>
+        <v>1.582933872397848</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.555859785358914</v>
@@ -29138,7 +28874,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.62158172579586</v>
+        <v>1.585539076977606</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.061478643570078</v>
@@ -29227,7 +28963,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.632818135947529</v>
+        <v>1.591051218151957</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.813102242257668</v>
@@ -29316,7 +29052,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.646000198324776</v>
+        <v>1.606029707771885</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.488463715504353</v>
@@ -29405,7 +29141,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.655987236842973</v>
+        <v>1.61880141954115</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.79767616411103</v>
@@ -29494,7 +29230,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.657116315163159</v>
+        <v>1.613062050834716</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.127373074744194</v>
@@ -29583,7 +29319,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.660592277099568</v>
+        <v>1.617601998410229</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.328652326351006</v>
@@ -29672,7 +29408,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.664999936478895</v>
+        <v>1.62584002625674</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.484133381142336</v>
@@ -29761,7 +29497,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.648289875080728</v>
+        <v>1.611544980147476</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.234838281402526</v>
@@ -29850,7 +29586,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.651227387770575</v>
+        <v>1.612564741387116</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.294744647189918</v>
@@ -29939,7 +29675,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.651151803674148</v>
+        <v>1.613151760199454</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.221897989854613</v>
@@ -30028,7 +29764,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.65185692431884</v>
+        <v>1.615029572182676</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.917425645321341</v>
@@ -30117,7 +29853,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.663801739912264</v>
+        <v>1.62888792739887</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.129928616499833</v>
@@ -30206,7 +29942,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.66152673215202</v>
+        <v>1.631425237525655</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.11523557653621</v>
@@ -30295,7 +30031,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.63971148965245</v>
+        <v>1.610641436941734</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.260634670675508</v>
@@ -30384,7 +30120,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.650317226851944</v>
+        <v>1.622360098958713</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.856025883646113</v>
@@ -30473,7 +30209,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.648981776543934</v>
+        <v>1.622663352287397</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.254429482253636</v>
@@ -30562,7 +30298,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.634164070390479</v>
+        <v>1.612497022123057</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.143743880413037</v>
@@ -30651,7 +30387,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.63900945958479</v>
+        <v>1.608182453143623</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.939271247072953</v>
@@ -30740,7 +30476,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.632423212420575</v>
+        <v>1.599898670503158</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.680672572945503</v>
@@ -30829,7 +30565,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.634683203640048</v>
+        <v>1.602135600938867</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.058392184541375</v>
@@ -30918,7 +30654,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.631600557287702</v>
+        <v>1.59429602062728</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.003782757546372</v>
@@ -31007,7 +30743,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.62727314513526</v>
+        <v>1.590957148558904</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.132892728961316</v>
@@ -31096,7 +30832,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.631113515978166</v>
+        <v>1.590213918238527</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.943245032838171</v>
@@ -31185,7 +30921,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.62734948821699</v>
+        <v>1.587543636375806</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.888440179447296</v>
@@ -31274,7 +31010,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.631730315723827</v>
+        <v>1.590291999812649</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.800380157182782</v>
@@ -31363,7 +31099,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.641147286618532</v>
+        <v>1.599124472686839</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.970045141167863</v>
@@ -31452,7 +31188,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.635806924860007</v>
+        <v>1.592020391582973</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.971130206204839</v>
@@ -31541,7 +31277,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.641158795124808</v>
+        <v>1.593631340370791</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.834032646427076</v>
@@ -31630,7 +31366,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.658394033689153</v>
+        <v>1.60969937029449</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.892249572735602</v>
@@ -31719,7 +31455,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.660213561323977</v>
+        <v>1.61243082045765</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.003508626554208</v>
@@ -31808,7 +31544,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.642916331333839</v>
+        <v>1.594550501717628</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.492733125712467</v>
@@ -31897,7 +31633,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.652113373480439</v>
+        <v>1.602473017060143</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.147874521794072</v>
@@ -31986,7 +31722,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.647091193134067</v>
+        <v>1.607460873950113</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.004427125829728</v>
@@ -32075,7 +31811,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.644612949620028</v>
+        <v>1.607757272646646</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.227720754667817</v>
@@ -32164,7 +31900,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.63429997514954</v>
+        <v>1.595750468730295</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.017817783516489</v>
@@ -32253,7 +31989,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.634593506541244</v>
+        <v>1.591987605344973</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.207152224153121</v>
@@ -32342,7 +32078,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.623545664462354</v>
+        <v>1.587050301124788</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.995934219824215</v>
@@ -32431,7 +32167,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.629423216972383</v>
+        <v>1.592445762291937</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>3.219609969920365</v>
@@ -32520,7 +32256,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.62353813494199</v>
+        <v>1.588055453538777</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.938134470947332</v>
@@ -32609,7 +32345,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.608378861327184</v>
+        <v>1.56990004945011</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>3.00685386867571</v>
@@ -32698,7 +32434,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.608228573398674</v>
+        <v>1.568596047117928</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.901218047958532</v>
@@ -32787,7 +32523,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.602259192603768</v>
+        <v>1.561390465738163</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.881870539264426</v>
@@ -32876,7 +32612,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.592099127346834</v>
+        <v>1.556129392294031</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.949565887415554</v>
@@ -33162,7 +32898,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.302200781326012</v>
+        <v>1.310973249352565</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.631474962745126</v>
@@ -33251,7 +32987,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.286432534020514</v>
+        <v>1.291977861702433</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.611530719314949</v>
@@ -33340,7 +33076,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.288687791941768</v>
+        <v>1.294485596893681</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.563496202504392</v>
@@ -33429,7 +33165,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.296256687384323</v>
+        <v>1.30170204517552</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.584849311797405</v>
@@ -33518,7 +33254,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.296018301367444</v>
+        <v>1.299826997352639</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.58995549234105</v>
@@ -33607,7 +33343,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.29934212551998</v>
+        <v>1.304543552212611</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.579463631165249</v>
@@ -33696,7 +33432,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.300205546425282</v>
+        <v>1.30578759292337</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.584491172016436</v>
@@ -33785,7 +33521,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.294383608971396</v>
+        <v>1.299076058667247</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.584492696633837</v>
@@ -33874,7 +33610,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.294228801387207</v>
+        <v>1.299554264602694</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.580266005522897</v>
@@ -33963,7 +33699,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.353809707217751</v>
+        <v>1.351875466843209</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.510718639966443</v>
@@ -34052,7 +33788,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.4524633757465</v>
+        <v>1.449223777258292</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.79110266814786</v>
@@ -34141,7 +33877,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.462009976963815</v>
+        <v>1.45217263174675</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.865574519296122</v>
@@ -34230,7 +33966,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.569032741183642</v>
+        <v>1.557877886456971</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.12820820368573</v>
@@ -34319,7 +34055,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.608243761794806</v>
+        <v>1.596247956211222</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.271742015727479</v>
@@ -34408,7 +34144,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.620862664195286</v>
+        <v>1.600436035635536</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.056601014604088</v>
@@ -34497,7 +34233,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.610070644316437</v>
+        <v>1.594454247272244</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.242490638974405</v>
@@ -34586,7 +34322,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.60212853807233</v>
+        <v>1.584674954278984</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.300616709700871</v>
@@ -34675,7 +34411,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.615900486573491</v>
+        <v>1.598371525119804</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.372606724798829</v>
@@ -34764,7 +34500,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.617880240806554</v>
+        <v>1.604995231094416</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.409380594804163</v>
@@ -34853,7 +34589,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.61861350618791</v>
+        <v>1.612908225127636</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.247269133966764</v>
@@ -34942,7 +34678,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.608816677235891</v>
+        <v>1.609791971900817</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.420510675713259</v>
@@ -35031,7 +34767,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.609355537155279</v>
+        <v>1.602566786929674</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.917598503920553</v>
@@ -35120,7 +34856,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.621759074089278</v>
+        <v>1.616282781794796</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.975717986004315</v>
@@ -35209,7 +34945,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.594918055151952</v>
+        <v>1.58636798799493</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.755866235117193</v>
@@ -35298,7 +35034,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.582910919609167</v>
+        <v>1.569089454739954</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.777251034164808</v>
@@ -35387,7 +35123,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.586628702750573</v>
+        <v>1.570431653128565</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.71226342343317</v>
@@ -35476,7 +35212,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.591993745938548</v>
+        <v>1.572018776530756</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.834365467033526</v>
@@ -35565,7 +35301,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.606694510589544</v>
+        <v>1.584930284551223</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.571699196916527</v>
@@ -35654,7 +35390,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.604297670367844</v>
+        <v>1.5828757770297</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.786971032042592</v>
@@ -35743,7 +35479,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.60326059570807</v>
+        <v>1.581883484038801</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.775455432942877</v>
@@ -35832,7 +35568,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.611515469056175</v>
+        <v>1.586144055842196</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.620083868638883</v>
@@ -35921,7 +35657,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.623361491003996</v>
+        <v>1.595035946706826</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.717768219551453</v>
@@ -36010,7 +35746,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.614414267213059</v>
+        <v>1.587740353385994</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.5803242103922</v>
@@ -36099,7 +35835,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.608370679929852</v>
+        <v>1.583843702804176</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.811355145345667</v>
@@ -36188,7 +35924,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.614366817455501</v>
+        <v>1.58546102206725</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.475273271292889</v>
@@ -36277,7 +36013,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.605909174306117</v>
+        <v>1.577184237031577</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.640998789246389</v>
@@ -36366,7 +36102,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.599874833547477</v>
+        <v>1.579131320337414</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.811045118249181</v>
@@ -36455,7 +36191,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.598433969078429</v>
+        <v>1.575650060087318</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.698106262029186</v>
@@ -36544,7 +36280,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.619854232298561</v>
+        <v>1.600997460794925</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.012937203913372</v>
@@ -36633,7 +36369,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.613351853547792</v>
+        <v>1.601029560528216</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.489136794728235</v>
@@ -36722,7 +36458,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.619257343486019</v>
+        <v>1.610330993233026</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.251962945728097</v>
@@ -36811,7 +36547,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.618899452838009</v>
+        <v>1.607850606897364</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.499906489421997</v>
@@ -36900,7 +36636,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.618950361545429</v>
+        <v>1.605573766238781</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.349106011351004</v>
@@ -36989,7 +36725,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.629797428587528</v>
+        <v>1.619560507721798</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.343985165443879</v>
@@ -37078,7 +36814,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.628724435349811</v>
+        <v>1.620890945694928</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.231668002378896</v>
@@ -37167,7 +36903,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.623290058321905</v>
+        <v>1.619372592894152</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.020242899863808</v>
@@ -37256,7 +36992,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.622543974367615</v>
+        <v>1.619671213787099</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.275644108835706</v>
@@ -37345,7 +37081,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.631289597210152</v>
+        <v>1.623804458831194</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.596624504513516</v>
@@ -37434,7 +37170,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.644903458889808</v>
+        <v>1.630960964622372</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.239422303250814</v>
@@ -37523,7 +37259,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.649990530288064</v>
+        <v>1.632866787988914</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.993112902151652</v>
@@ -37612,7 +37348,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.648459974144474</v>
+        <v>1.632903576084471</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.453105298599935</v>
@@ -37701,7 +37437,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.649729254612598</v>
+        <v>1.635180568422312</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.191002245266128</v>
@@ -37790,7 +37526,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.654550414572845</v>
+        <v>1.63684534054297</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.470281268154841</v>
@@ -37879,7 +37615,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.66556354629871</v>
+        <v>1.63886963435955</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.367776541141315</v>
@@ -37968,7 +37704,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.679948919432535</v>
+        <v>1.653497515710834</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.806878937489016</v>
@@ -38057,7 +37793,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.67445261686057</v>
+        <v>1.6436610956077</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.432018344063369</v>
@@ -38146,7 +37882,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.674661266257627</v>
+        <v>1.643067090692823</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.769422970627801</v>
@@ -38235,7 +37971,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.67024621171372</v>
+        <v>1.635688957647934</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.713853187638254</v>
@@ -38324,7 +38060,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.670103875560912</v>
+        <v>1.634369069177816</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.030665515058483</v>
@@ -38413,7 +38149,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.668664808556749</v>
+        <v>1.630642400729595</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.943695461203386</v>
@@ -38502,7 +38238,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.671218289400588</v>
+        <v>1.632596300109728</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.777509114744627</v>
@@ -38591,7 +38327,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.682268258434801</v>
+        <v>1.64614273794249</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.775177849144764</v>
@@ -38680,7 +38416,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.688580026909253</v>
+        <v>1.644505224625402</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.755743222520539</v>
@@ -38769,7 +38505,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.689712683345897</v>
+        <v>1.648190352935176</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.189265812214942</v>
@@ -38858,7 +38594,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.685495569873276</v>
+        <v>1.64540751770969</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.96110414377464</v>
@@ -38947,7 +38683,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.697873673006664</v>
+        <v>1.653522239205517</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.909345562529595</v>
@@ -39036,7 +38772,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.693569284070979</v>
+        <v>1.647278325679567</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.114871526390659</v>
@@ -39125,7 +38861,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.687056574789838</v>
+        <v>1.644486169503701</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.006660391175899</v>
@@ -39214,7 +38950,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.639652642618619</v>
+        <v>1.607479547002551</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.263932801851744</v>
@@ -39303,7 +39039,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.641741386426567</v>
+        <v>1.611055442934315</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.261396462386847</v>
@@ -39392,7 +39128,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.628155580151112</v>
+        <v>1.598601317100594</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.336683215230749</v>
@@ -39481,7 +39217,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.590875906755139</v>
+        <v>1.57113343768918</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.354955138385564</v>
@@ -39570,7 +39306,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.592135877237441</v>
+        <v>1.570283643229175</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.323930041326435</v>
@@ -39659,7 +39395,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.589855579869641</v>
+        <v>1.567648891421038</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.307866979701307</v>
@@ -39748,7 +39484,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.5913401915365</v>
+        <v>1.569346432583778</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.318657699762104</v>
@@ -39837,7 +39573,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.585891749152931</v>
+        <v>1.554461181800308</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.382416126740673</v>
@@ -39926,7 +39662,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.526985727315947</v>
+        <v>1.510558834508488</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.375315018765556</v>
@@ -40015,7 +39751,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.516209729540487</v>
+        <v>1.50607189482103</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.354763922290195</v>
@@ -40104,7 +39840,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.50769430388028</v>
+        <v>1.498310248992407</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.319280367441404</v>
@@ -40193,7 +39929,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.499139152400003</v>
+        <v>1.489806524268805</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.384155495937794</v>
@@ -40282,7 +40018,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.483413165492716</v>
+        <v>1.474557642025446</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.316570561252829</v>
@@ -40371,7 +40107,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.488213714001869</v>
+        <v>1.476854688802341</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.37970881089362</v>
@@ -40460,7 +40196,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.50095527030714</v>
+        <v>1.488856484356625</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.177414986507413</v>
@@ -40549,7 +40285,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.514367586539396</v>
+        <v>1.501346251763021</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.335359226137787</v>
@@ -40638,7 +40374,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.506182154403803</v>
+        <v>1.489747952638758</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.301013793989759</v>
@@ -40727,7 +40463,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.510177545303586</v>
+        <v>1.494127313539017</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.248575651846727</v>
@@ -40816,7 +40552,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.542939923949571</v>
+        <v>1.518411076878339</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.300221981692483</v>
@@ -41102,7 +40838,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.609646813525297</v>
+        <v>1.649200676372846</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.75503569059736</v>
@@ -41191,7 +40927,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.585841655935391</v>
+        <v>1.62123989575993</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.656685703039605</v>
@@ -41280,7 +41016,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.585064181058724</v>
+        <v>1.620410939266161</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.341746214876604</v>
@@ -41369,7 +41105,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.593653487630544</v>
+        <v>1.628628451744083</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.559708608159543</v>
@@ -41458,7 +41194,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.584537785171559</v>
+        <v>1.620479298602243</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.429199038528121</v>
@@ -41547,7 +41283,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.589399951284803</v>
+        <v>1.625263236404637</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.517638465417829</v>
@@ -41636,7 +41372,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.594386210172483</v>
+        <v>1.629047155535582</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.518510209562926</v>
@@ -41725,7 +41461,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.602293865298464</v>
+        <v>1.637633695325223</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.505847543723986</v>
@@ -41814,7 +41550,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.593968008471427</v>
+        <v>1.631486020309648</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.431403177023796</v>
@@ -41903,7 +41639,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.612677257535459</v>
+        <v>1.642043419189047</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.47565655786476</v>
@@ -41992,7 +41728,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.597996207326967</v>
+        <v>1.622880269335791</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.12609628046465</v>
@@ -42081,7 +41817,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.573771217997188</v>
+        <v>1.594074606902496</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.892417731971253</v>
@@ -42170,7 +41906,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.541888550234433</v>
+        <v>1.555537663391329</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.700832503208462</v>
@@ -42259,7 +41995,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.543300397111598</v>
+        <v>1.56293329199337</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.914888245493308</v>
@@ -42348,7 +42084,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.538889951863253</v>
+        <v>1.55633816495516</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.891079133625358</v>
@@ -42437,7 +42173,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.532688290449256</v>
+        <v>1.552956855447658</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.786712535456481</v>
@@ -42526,7 +42262,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.50616201849746</v>
+        <v>1.526003097307741</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.769197223458362</v>
@@ -42615,7 +42351,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.509123404288718</v>
+        <v>1.528914395333429</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.529732488508917</v>
@@ -42704,7 +42440,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.514326876321697</v>
+        <v>1.53802695158845</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.416197425364816</v>
@@ -42793,7 +42529,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.526060218120845</v>
+        <v>1.54326606041048</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.440174813395059</v>
@@ -42882,7 +42618,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.514967878850609</v>
+        <v>1.538395696539559</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.437645012950655</v>
@@ -42971,7 +42707,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.494528509040366</v>
+        <v>1.517026103099358</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.53081584148326</v>
@@ -43060,7 +42796,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.490551379483777</v>
+        <v>1.512526718368088</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.395851383260956</v>
@@ -43149,7 +42885,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.501710345756644</v>
+        <v>1.520679285299225</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.469921851964311</v>
@@ -43238,7 +42974,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.497009209911001</v>
+        <v>1.512936706820964</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.661642126980395</v>
@@ -43327,7 +43063,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.503965254485968</v>
+        <v>1.516636135803796</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.66381764055099</v>
@@ -43416,7 +43152,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.505344964259993</v>
+        <v>1.51771904354324</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.435821578949669</v>
@@ -43505,7 +43241,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.480466523530295</v>
+        <v>1.494515137648726</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.456521737272186</v>
@@ -43594,7 +43330,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.458325635889877</v>
+        <v>1.463708959794894</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.4216605570084</v>
@@ -43683,7 +43419,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.456748257656937</v>
+        <v>1.464234074896451</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.458589411781238</v>
@@ -43772,7 +43508,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.459458606946181</v>
+        <v>1.465262078552586</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.316554752226611</v>
@@ -43861,7 +43597,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.478033687203711</v>
+        <v>1.481716163921952</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.392939926171155</v>
@@ -43950,7 +43686,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.457172815064625</v>
+        <v>1.461308825963937</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.421464740591336</v>
@@ -44039,7 +43775,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.447312428035215</v>
+        <v>1.450553147066877</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.384925246755888</v>
@@ -44128,7 +43864,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.455529376663203</v>
+        <v>1.457088614657047</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.20397742411164</v>
@@ -44217,7 +43953,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.455504554131092</v>
+        <v>1.45468720210896</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.39764182171842</v>
@@ -44306,7 +44042,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.461869684847003</v>
+        <v>1.457568447132116</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.447892469055432</v>
@@ -44395,7 +44131,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.462328995411371</v>
+        <v>1.45659765016891</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.437557982542276</v>
@@ -44484,7 +44220,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.456590692342475</v>
+        <v>1.452776368717583</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.346323476995214</v>
@@ -44573,7 +44309,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.460505585635039</v>
+        <v>1.457577021569335</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.368880796538176</v>
@@ -44662,7 +44398,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.45089198053316</v>
+        <v>1.450043939385774</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.394946917926161</v>
@@ -44751,7 +44487,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.453384554660118</v>
+        <v>1.448944068359517</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.352455634469798</v>
@@ -44840,7 +44576,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.487657657727971</v>
+        <v>1.481425166803526</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.964651160602271</v>
@@ -44929,7 +44665,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.507247339068369</v>
+        <v>1.506699413969301</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.79633509073438</v>
@@ -45018,7 +44754,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.510028675130586</v>
+        <v>1.511778880636303</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.159160490240131</v>
@@ -45107,7 +44843,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.512292434097625</v>
+        <v>1.517025506546334</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.088948691446233</v>
@@ -45196,7 +44932,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.508857866513808</v>
+        <v>1.513266683581095</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.699395495933208</v>
@@ -45285,7 +45021,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.530219633389966</v>
+        <v>1.531221742466841</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.725593756720494</v>
@@ -45374,7 +45110,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.535624600481075</v>
+        <v>1.534228194730994</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.940321965627749</v>
@@ -45463,7 +45199,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.519094989782771</v>
+        <v>1.523164906802975</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.325687891748332</v>
@@ -45552,7 +45288,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.495376088793002</v>
+        <v>1.503618165142744</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.443262412387635</v>
@@ -45641,7 +45377,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.5045797528671</v>
+        <v>1.509371564559786</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.44981127273135</v>
@@ -45730,7 +45466,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.497641823766808</v>
+        <v>1.503635917978887</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.381225436448028</v>
@@ -45819,7 +45555,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.494096915114391</v>
+        <v>1.494264518172642</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.3796796016144</v>
@@ -45908,7 +45644,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.495542357014534</v>
+        <v>1.496711256486924</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.435042634039134</v>
@@ -45997,7 +45733,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.508310526485767</v>
+        <v>1.506833983479704</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.504578221227979</v>
@@ -46086,7 +45822,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.512946746125155</v>
+        <v>1.511714325675538</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.318703932589734</v>
@@ -46175,7 +45911,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.517200874588413</v>
+        <v>1.514710737045639</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.396174047614361</v>
@@ -46264,7 +46000,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.525325049433592</v>
+        <v>1.522906624214707</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.522658731356347</v>
@@ -46353,7 +46089,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.511699909303447</v>
+        <v>1.509629494157136</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.454305000657574</v>
@@ -46442,7 +46178,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.51741546881243</v>
+        <v>1.514827965628157</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.527929414915389</v>
@@ -46531,7 +46267,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.512537999611238</v>
+        <v>1.511245831781801</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.443166747588045</v>
@@ -46620,7 +46356,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.504610455732486</v>
+        <v>1.507523286429837</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.477087166378992</v>
@@ -46709,7 +46445,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.516270093625238</v>
+        <v>1.516327675028368</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.341693543001263</v>
@@ -46798,7 +46534,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.538667954750185</v>
+        <v>1.531260580172636</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.85256066544312</v>
@@ -46887,7 +46623,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.54799080105351</v>
+        <v>1.536085958073999</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.17796185745497</v>
@@ -46976,7 +46712,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.536442296721488</v>
+        <v>1.518642792367061</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.700080291096185</v>
@@ -47065,7 +46801,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.530575209830777</v>
+        <v>1.508994404594493</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.610711410026371</v>
@@ -47154,7 +46890,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.521789257122751</v>
+        <v>1.514347193738773</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.4453269489528</v>
@@ -47243,7 +46979,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.533190314760834</v>
+        <v>1.525250544629834</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.509218242387125</v>
@@ -47332,7 +47068,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.520807391489749</v>
+        <v>1.510798207069721</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.756174586783596</v>
@@ -47421,7 +47157,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.522678084779475</v>
+        <v>1.512783145616101</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.707676403960355</v>
@@ -47510,7 +47246,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.516749592532606</v>
+        <v>1.51261567069336</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.642038641984556</v>
@@ -47599,7 +47335,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.510349711822319</v>
+        <v>1.507029720154248</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.447456400956138</v>
@@ -47688,7 +47424,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.510348152058267</v>
+        <v>1.499214579720802</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.174300731971187</v>
@@ -47777,7 +47513,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.487666300176342</v>
+        <v>1.475345133919959</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.240963329765709</v>
@@ -47866,7 +47602,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.487552241006408</v>
+        <v>1.477186836420365</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.124980594308049</v>
@@ -47955,7 +47691,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.48437268058805</v>
+        <v>1.469426121438893</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.232226753389273</v>
@@ -48044,7 +47780,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.4793026902684</v>
+        <v>1.465997551433277</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.282384243646283</v>
@@ -48133,7 +47869,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.490751162167294</v>
+        <v>1.479201378716182</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.307906461366737</v>
@@ -48222,7 +47958,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.47867349626001</v>
+        <v>1.469275529333043</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.245818121212415</v>
@@ -48311,7 +48047,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.496795312836296</v>
+        <v>1.486459395638855</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.241217487665299</v>
@@ -48400,7 +48136,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.502689580786458</v>
+        <v>1.492071149949458</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.17286447551633</v>
@@ -48489,7 +48225,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.512646991900608</v>
+        <v>1.499380356661095</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.350121108595671</v>
@@ -48578,7 +48314,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.499701009231474</v>
+        <v>1.485631053307141</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.228560074603653</v>
@@ -48667,7 +48403,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.508011042090021</v>
+        <v>1.498032096316785</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.329904417862123</v>
@@ -48756,7 +48492,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.514238318569987</v>
+        <v>1.50239052807715</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.271842104145975</v>
@@ -49042,7 +48778,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.491296743167276</v>
+        <v>1.511802793462008</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.901011601943306</v>
@@ -49131,7 +48867,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.471627349535124</v>
+        <v>1.487017816064575</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.536973608813246</v>
@@ -49220,7 +48956,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.482931976747576</v>
+        <v>1.493862265416087</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.46081414833629</v>
@@ -49309,7 +49045,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.491976542164352</v>
+        <v>1.503133026446593</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.876287288351557</v>
@@ -49398,7 +49134,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.515199126265476</v>
+        <v>1.525998475966929</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.454238813479287</v>
@@ -49487,7 +49223,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.526980328277207</v>
+        <v>1.537992382242316</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.849144242725278</v>
@@ -49576,7 +49312,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.533300234604065</v>
+        <v>1.542906673494527</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.475127912307877</v>
@@ -49665,7 +49401,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.544667832092827</v>
+        <v>1.550433087024514</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.658612297648867</v>
@@ -49754,7 +49490,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.546043605463887</v>
+        <v>1.550375462442234</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.724752651442695</v>
@@ -49843,7 +49579,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.516765760686748</v>
+        <v>1.528074897288209</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.791177092056043</v>
@@ -49932,7 +49668,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.438427467710309</v>
+        <v>1.441362863670813</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.52264906021398</v>
@@ -50021,7 +49757,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.417437016358352</v>
+        <v>1.418159877842474</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.277140570172734</v>
@@ -50110,7 +49846,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.384763989029203</v>
+        <v>1.377581027181086</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.346328551311631</v>
@@ -50199,7 +49935,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.401176698881549</v>
+        <v>1.39715134538295</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.374942655413189</v>
@@ -50288,7 +50024,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.398369606738675</v>
+        <v>1.394833474532514</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.085038353180658</v>
@@ -50377,7 +50113,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.420913591524528</v>
+        <v>1.413825822363912</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.715374742385865</v>
@@ -50466,7 +50202,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.409943302863123</v>
+        <v>1.398953155739365</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.835662690530511</v>
@@ -50555,7 +50291,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.406806756236479</v>
+        <v>1.398097102096813</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.885449635238158</v>
@@ -50644,7 +50380,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.41103235442001</v>
+        <v>1.400436039148673</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.877024240812609</v>
@@ -50733,7 +50469,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.404965955198259</v>
+        <v>1.388239990251112</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.941782712688812</v>
@@ -50822,7 +50558,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.401933216286631</v>
+        <v>1.390933589537706</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.006149621375318</v>
@@ -50911,7 +50647,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.394561077594354</v>
+        <v>1.379006273576146</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.896603840873663</v>
@@ -51000,7 +50736,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.395828019871275</v>
+        <v>1.376770859774862</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.575777593837216</v>
@@ -51089,7 +50825,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.401483293490458</v>
+        <v>1.38132677551848</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.543372210832142</v>
@@ -51178,7 +50914,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.4013110239344</v>
+        <v>1.379761227247877</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.872519401868148</v>
@@ -51267,7 +51003,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.397389862077615</v>
+        <v>1.370821389557648</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.760099582752576</v>
@@ -51356,7 +51092,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.398379090515605</v>
+        <v>1.375937927418365</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.53542978983472</v>
@@ -51445,7 +51181,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.419580903314841</v>
+        <v>1.396074847489778</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.911933687210483</v>
@@ -51534,7 +51270,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.425406417540498</v>
+        <v>1.398871544855069</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.652916273289703</v>
@@ -51623,7 +51359,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.427447462944603</v>
+        <v>1.399819836413331</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.889798944253783</v>
@@ -51712,7 +51448,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.425761889161138</v>
+        <v>1.397728544654094</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.865237915969954</v>
@@ -51801,7 +51537,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.430612561845829</v>
+        <v>1.399484076060052</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.828386475312753</v>
@@ -51890,7 +51626,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.437905408185767</v>
+        <v>1.405092838575538</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.77528490856145</v>
@@ -51979,7 +51715,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.433837395080555</v>
+        <v>1.39937652549888</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.423732797760477</v>
@@ -52068,7 +51804,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.435680664540249</v>
+        <v>1.405421680554684</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.853961135227365</v>
@@ -52157,7 +51893,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.442401151712355</v>
+        <v>1.41114723439996</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.665564246157778</v>
@@ -52246,7 +51982,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.439183733269231</v>
+        <v>1.413054534187164</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.908052401280544</v>
@@ -52335,7 +52071,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.435538913502893</v>
+        <v>1.41270799578614</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.781957750324639</v>
@@ -52424,7 +52160,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.433087956568334</v>
+        <v>1.412731526339637</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.869837512289591</v>
@@ -52513,7 +52249,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.446868816404747</v>
+        <v>1.423348508749438</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.531306251482428</v>
@@ -52602,7 +52338,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.444898166544079</v>
+        <v>1.426685802147048</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.916626024491177</v>
@@ -52691,7 +52427,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.443885179798698</v>
+        <v>1.424232037901444</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.835487471038654</v>
@@ -52780,7 +52516,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.438076576330298</v>
+        <v>1.421053214287177</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.887738882506562</v>
@@ -52869,7 +52605,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.435760835083258</v>
+        <v>1.416945061922719</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.87145677903487</v>
@@ -52958,7 +52694,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.436695385485181</v>
+        <v>1.414888283271831</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.90809610428145</v>
@@ -53047,7 +52783,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.441738451573873</v>
+        <v>1.423332148084632</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.964948561811142</v>
@@ -53136,7 +52872,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.444073776949929</v>
+        <v>1.42031352993073</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.612188821957362</v>
@@ -53225,7 +52961,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.437840523751486</v>
+        <v>1.416663648869502</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.818136884942652</v>
@@ -53314,7 +53050,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.451108662010462</v>
+        <v>1.427095013546961</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.717237089974408</v>
@@ -53403,7 +53139,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.447726158874659</v>
+        <v>1.423671445395061</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.971419881063488</v>
@@ -53492,7 +53228,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.447572925008061</v>
+        <v>1.426130132506748</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.709617304129987</v>
@@ -53581,7 +53317,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.458278618247566</v>
+        <v>1.437700489217347</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.867214854469156</v>
@@ -53670,7 +53406,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.452661606627736</v>
+        <v>1.427528633918961</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.6827185072294</v>
@@ -53759,7 +53495,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.458914748441773</v>
+        <v>1.432871064786468</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.42697342578409</v>
@@ -53848,7 +53584,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.461343632206888</v>
+        <v>1.436569142824322</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.733925458470305</v>
@@ -53937,7 +53673,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.457666652758331</v>
+        <v>1.431120967278663</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.729303180423639</v>
@@ -54026,7 +53762,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.457130913829487</v>
+        <v>1.436719152987676</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.607724283846681</v>
@@ -54115,7 +53851,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.452716376643358</v>
+        <v>1.429738121842841</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.628537039033367</v>
@@ -54204,7 +53940,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.450855233917595</v>
+        <v>1.430127749963487</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.675364117359242</v>
@@ -54293,7 +54029,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.443606898331393</v>
+        <v>1.424070952531031</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.57804610413111</v>
@@ -54382,7 +54118,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.438173277576619</v>
+        <v>1.418742400705547</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.753435276770463</v>
@@ -54471,7 +54207,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.450381110388853</v>
+        <v>1.429379752466418</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.612389136159551</v>
@@ -54560,7 +54296,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.448677999436136</v>
+        <v>1.430669133461461</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.788638885633455</v>
@@ -54649,7 +54385,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.4371798855253</v>
+        <v>1.41736203917019</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.697432291509419</v>
@@ -54738,7 +54474,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.434352520305395</v>
+        <v>1.415860203652339</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.695556626027521</v>
@@ -54827,7 +54563,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.436784975731952</v>
+        <v>1.414807283270114</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.597533246039496</v>
@@ -54916,7 +54652,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.438091863055907</v>
+        <v>1.41419336680904</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.829603437378276</v>
@@ -55005,7 +54741,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.453005884775981</v>
+        <v>1.431669376756664</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.779943577965352</v>
@@ -55094,7 +54830,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.456524939328</v>
+        <v>1.431258186752885</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.595805312622384</v>
@@ -55183,7 +54919,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.459439235581909</v>
+        <v>1.43174210298794</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.540854068395087</v>
@@ -55272,7 +55008,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.464255931502004</v>
+        <v>1.438220208002485</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.847331937825154</v>
@@ -55361,7 +55097,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.464712297405741</v>
+        <v>1.436539522762675</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.71393513834541</v>
@@ -55450,7 +55186,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.464373215485741</v>
+        <v>1.434348903829011</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.56250171525952</v>
@@ -55539,7 +55275,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.472414903754477</v>
+        <v>1.445138910281357</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.818812757253043</v>
@@ -55628,7 +55364,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.486846246237413</v>
+        <v>1.459240699809204</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.746426503922052</v>
@@ -55717,7 +55453,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.492701604159636</v>
+        <v>1.463701552813263</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.88918615936141</v>
@@ -55806,7 +55542,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.490229593358807</v>
+        <v>1.461064610360602</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.493853023738081</v>
@@ -55895,7 +55631,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.499999261202803</v>
+        <v>1.471662625806903</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.753570224003791</v>
@@ -55984,7 +55720,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.50950002891702</v>
+        <v>1.478134438182739</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.230858382706185</v>
@@ -56073,7 +55809,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.519057676417541</v>
+        <v>1.492145757322027</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.10943808822223</v>
@@ -56162,7 +55898,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.505314972390225</v>
+        <v>1.481506475246831</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.926078934422304</v>
@@ -56251,7 +55987,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.498490890943542</v>
+        <v>1.474447235664022</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.967424532953387</v>
@@ -56340,7 +56076,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.493060038243638</v>
+        <v>1.468758940996364</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.744855653030776</v>
@@ -56429,7 +56165,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.488163075805393</v>
+        <v>1.464373730869514</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.90628121500209</v>
@@ -56518,7 +56254,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.484237635077506</v>
+        <v>1.459689695699236</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.971750530679926</v>
@@ -56607,7 +56343,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.480835890526976</v>
+        <v>1.451909763257655</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.956904204317337</v>
@@ -56696,7 +56432,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.491732199366784</v>
+        <v>1.46056880873907</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.860079239421506</v>
